--- a/wpan/ble/core/doc/GATT_DB_Size_SRAM_NVM.xlsx
+++ b/wpan/ble/core/doc/GATT_DB_Size_SRAM_NVM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GATT_DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B318114-A314-4BB5-B8F4-1ECE6284A35D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16C2A070-A031-435D-8CAB-F9447119C498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5385" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{E7A381F5-4F46-405C-A5AB-D983E50DABB2}"/>
+    <workbookView xWindow="-38520" yWindow="-5385" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{E7A381F5-4F46-405C-A5AB-D983E50DABB2}"/>
   </bookViews>
   <sheets>
     <sheet name="Version History" sheetId="35" r:id="rId1"/>
@@ -39,7 +39,7 @@
     <definedName name="SEG_BUFFER_COUNT">#REF!</definedName>
     <definedName name="WORD_SIZE_BYTES">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="157">
   <si>
     <t>CLINAME</t>
   </si>
@@ -172,21 +172,6 @@
   </si>
   <si>
     <t>[UUID=0x1801]</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Service Changed </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[UUID=0x2A05]</t>
-    </r>
   </si>
   <si>
     <t>[UUID=0x1800]</t>
@@ -267,9 +252,6 @@
     <t>nvm_size_of_sec_record_words</t>
   </si>
   <si>
-    <t>nvm_default_gatt_configuration</t>
-  </si>
-  <si>
     <t>BLE_TOTAL_BUFFER_SIZE_GATT</t>
   </si>
   <si>
@@ -439,13 +421,6 @@
   </si>
   <si>
     <t>enhanced ATT supported</t>
-  </si>
-  <si>
-    <t>Define services and characteristics of user's application</t>
-  </si>
-  <si>
-    <t>Reduced GATT database in NVM
-SVC change descriptor</t>
   </si>
   <si>
     <t>Reduced GATT database in NVM
@@ -477,9 +452,6 @@
   </si>
   <si>
     <t>charac 8</t>
-  </si>
-  <si>
-    <t>STM32WB - GATT DB in SRAM and records in NVM (security and GATT database)</t>
   </si>
   <si>
     <r>
@@ -882,8 +854,33 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> sheet, calculation results are stored in a table</t>
+      <t xml:space="preserve"> sheet: a table summerizes the calculated values.</t>
     </r>
+  </si>
+  <si>
+    <t>Service Changed [UUID=0x2A05]</t>
+  </si>
+  <si>
+    <t>Characterisitc Descriptor</t>
+  </si>
+  <si>
+    <t>Client Characteristic Configuration Descriptor</t>
+  </si>
+  <si>
+    <t>Server Characteristic Configuration Descriptor</t>
+  </si>
+  <si>
+    <t>Characteristic Extended Property Descriptor</t>
+  </si>
+  <si>
+    <t>Reduced GATT database in NVM with
+SVC change descriptor</t>
+  </si>
+  <si>
+    <t>words</t>
+  </si>
+  <si>
+    <t>bytes</t>
   </si>
   <si>
     <r>
@@ -908,8 +905,33 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> sheet: a table summerizes the calculated values.</t>
+      <t xml:space="preserve"> sheet, calculation results are stored in a table:</t>
     </r>
+  </si>
+  <si>
+    <t>Check if BLE_TOTAL_BUFFER_SIZE_GATT &lt; Max size</t>
+  </si>
+  <si>
+    <t>Define services and characteristics of user's application:</t>
+  </si>
+  <si>
+    <t>Services 1 to 4 are set as example. Services and/or characteristics can be removed (set a blank instead of "S" or "C"), modify the properties of each characteristic.</t>
+  </si>
+  <si>
+    <t>To add services, use same model of service 1 to 4 definition and adapt the formula to calculate CFG_BLE_NUM_GATT_ATTRIBUTES and CFG_BLE_ATT_VALUE_ARRAY_SIZE</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>Corrections in some formula 
+Add information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In below table, check is done. Green cells where condition is filled else red cells  </t>
+  </si>
+  <si>
+    <t>https://wiki.st.com/stm32mcu/wiki/Connectivity:STM32WB-WBA_GATT_Data_Base_and_bonded_devices_information_storage</t>
   </si>
 </sst>
 </file>
@@ -918,7 +940,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="167" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
   <fonts count="47" x14ac:knownFonts="1">
     <font>
@@ -2349,7 +2371,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="212">
+  <cellXfs count="223">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2790,6 +2812,27 @@
     <xf numFmtId="0" fontId="0" fillId="35" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="41" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
@@ -2858,18 +2901,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="41" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2918,26 +2955,51 @@
   </cellStyles>
   <dxfs count="14">
     <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2992,62 +3054,16 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
+          <bgColor theme="8" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3402,7 +3418,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3413,56 +3429,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="211" t="s">
-        <v>137</v>
-      </c>
-      <c r="B1" s="211" t="s">
-        <v>138</v>
-      </c>
-      <c r="C1" s="211" t="s">
-        <v>139</v>
+      <c r="A1" s="185" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="185" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" s="185" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="208" t="s">
-        <v>140</v>
-      </c>
-      <c r="B2" s="209">
+      <c r="A2" s="182" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" s="183">
         <v>44958</v>
       </c>
-      <c r="C2" s="210" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="208"/>
-      <c r="B3" s="209"/>
-      <c r="C3" s="210"/>
+      <c r="C2" s="184" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="182" t="s">
+        <v>153</v>
+      </c>
+      <c r="B3" s="183">
+        <v>45037</v>
+      </c>
+      <c r="C3" s="190" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="208"/>
-      <c r="B4" s="209"/>
-      <c r="C4" s="210"/>
+      <c r="A4" s="182"/>
+      <c r="B4" s="183"/>
+      <c r="C4" s="184"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="208"/>
-      <c r="B5" s="209"/>
-      <c r="C5" s="210"/>
+      <c r="A5" s="182"/>
+      <c r="B5" s="183"/>
+      <c r="C5" s="184"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="208"/>
-      <c r="B6" s="209"/>
-      <c r="C6" s="210"/>
+      <c r="A6" s="182"/>
+      <c r="B6" s="183"/>
+      <c r="C6" s="184"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="208"/>
-      <c r="B7" s="209"/>
-      <c r="C7" s="210"/>
+      <c r="A7" s="182"/>
+      <c r="B7" s="183"/>
+      <c r="C7" s="184"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="208"/>
-      <c r="B8" s="209"/>
-      <c r="C8" s="210"/>
+      <c r="A8" s="182"/>
+      <c r="B8" s="183"/>
+      <c r="C8" s="184"/>
     </row>
   </sheetData>
   <phoneticPr fontId="46" type="noConversion"/>
@@ -3476,9 +3498,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8EBED66-E770-423D-8635-6C08C8FECFD6}">
-  <dimension ref="A3:R37"/>
+  <dimension ref="A3:R39"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -3489,392 +3513,424 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="182" t="s">
+      <c r="A3" s="191" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="191"/>
+      <c r="C3" s="191"/>
+      <c r="D3" s="191"/>
+      <c r="E3" s="191"/>
+      <c r="F3" s="191"/>
+      <c r="G3" s="191"/>
+      <c r="H3" s="191"/>
+      <c r="I3" s="191"/>
+      <c r="J3" s="191"/>
+      <c r="K3" s="191"/>
+      <c r="L3" s="191"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" s="191" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="191"/>
+      <c r="C5" s="191"/>
+      <c r="D5" s="191"/>
+      <c r="E5" s="191"/>
+      <c r="F5" s="191"/>
+      <c r="G5" s="191"/>
+      <c r="H5" s="191"/>
+      <c r="I5" s="40" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" s="191" t="s">
+        <v>137</v>
+      </c>
+      <c r="B7" s="191"/>
+      <c r="C7" s="191"/>
+      <c r="D7" s="191"/>
+      <c r="E7" s="191"/>
+      <c r="F7" s="191"/>
+      <c r="G7" s="191"/>
+      <c r="H7" s="191"/>
+      <c r="I7" s="191"/>
+      <c r="J7" s="191"/>
+      <c r="K7" s="191"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" s="191" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" s="191"/>
+      <c r="C8" s="191"/>
+      <c r="D8" s="191"/>
+      <c r="E8" s="191"/>
+      <c r="F8" s="191"/>
+      <c r="G8" s="191"/>
+      <c r="H8" s="191"/>
+      <c r="I8" s="191"/>
+      <c r="J8" s="191"/>
+      <c r="K8" s="191"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" s="191" t="s">
+        <v>150</v>
+      </c>
+      <c r="B9" s="191"/>
+      <c r="C9" s="191"/>
+      <c r="D9" s="191"/>
+      <c r="E9" s="191"/>
+      <c r="F9" s="191"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" s="191" t="s">
+        <v>151</v>
+      </c>
+      <c r="B10" s="191"/>
+      <c r="C10" s="191"/>
+      <c r="D10" s="191"/>
+      <c r="E10" s="191"/>
+      <c r="F10" s="191"/>
+      <c r="G10" s="191"/>
+      <c r="H10" s="191"/>
+      <c r="I10" s="191"/>
+      <c r="J10" s="191"/>
+      <c r="K10" s="191"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" s="191" t="s">
+        <v>152</v>
+      </c>
+      <c r="B11" s="191"/>
+      <c r="C11" s="191"/>
+      <c r="D11" s="191"/>
+      <c r="E11" s="191"/>
+      <c r="F11" s="191"/>
+      <c r="G11" s="191"/>
+      <c r="H11" s="191"/>
+      <c r="I11" s="191"/>
+      <c r="J11" s="191"/>
+      <c r="K11" s="191"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13" s="191" t="s">
+        <v>138</v>
+      </c>
+      <c r="B13" s="191"/>
+      <c r="C13" s="191"/>
+      <c r="D13" s="191"/>
+      <c r="E13" s="191"/>
+      <c r="F13" s="191"/>
+      <c r="G13" s="191"/>
+      <c r="H13" s="191"/>
+      <c r="I13" s="191"/>
+      <c r="J13" s="191"/>
+      <c r="K13" s="191"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14" s="191" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="191"/>
+      <c r="C14" s="191"/>
+      <c r="D14" s="191"/>
+      <c r="E14" s="191"/>
+      <c r="F14" s="191"/>
+      <c r="G14" s="191"/>
+      <c r="H14" s="191"/>
+      <c r="I14" s="191"/>
+      <c r="J14" s="191"/>
+      <c r="K14" s="191"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A15" s="191" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="191"/>
+      <c r="C15" s="191"/>
+      <c r="D15" s="191"/>
+      <c r="E15" s="191"/>
+      <c r="F15" s="191"/>
+      <c r="G15" s="191"/>
+      <c r="H15" s="191"/>
+      <c r="I15" s="191"/>
+      <c r="J15" s="191"/>
+      <c r="K15" s="191"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A16" s="191" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="182"/>
-      <c r="C3" s="182"/>
-      <c r="D3" s="182"/>
-      <c r="E3" s="182"/>
-      <c r="F3" s="182"/>
-      <c r="G3" s="182"/>
-      <c r="H3" s="182"/>
-      <c r="I3" s="182"/>
-      <c r="J3" s="182"/>
-      <c r="K3" s="182"/>
-      <c r="L3" s="182"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" s="182" t="s">
-        <v>94</v>
-      </c>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="40" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" s="182" t="s">
-        <v>142</v>
-      </c>
-      <c r="B7" s="182"/>
-      <c r="C7" s="182"/>
-      <c r="D7" s="182"/>
-      <c r="E7" s="182"/>
-      <c r="F7" s="182"/>
-      <c r="G7" s="182"/>
-      <c r="H7" s="182"/>
-      <c r="I7" s="182"/>
-      <c r="J7" s="182"/>
-      <c r="K7" s="182"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8" s="182" t="s">
-        <v>124</v>
-      </c>
-      <c r="B8" s="182"/>
-      <c r="C8" s="182"/>
-      <c r="D8" s="182"/>
-      <c r="E8" s="182"/>
-      <c r="F8" s="182"/>
-      <c r="G8" s="182"/>
-      <c r="H8" s="182"/>
-      <c r="I8" s="182"/>
-      <c r="J8" s="182"/>
-      <c r="K8" s="182"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" s="182" t="s">
-        <v>111</v>
-      </c>
-      <c r="B9" s="182"/>
-      <c r="C9" s="182"/>
-      <c r="D9" s="182"/>
-      <c r="E9" s="182"/>
-      <c r="F9" s="182"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A11" s="182" t="s">
-        <v>143</v>
-      </c>
-      <c r="B11" s="182"/>
-      <c r="C11" s="182"/>
-      <c r="D11" s="182"/>
-      <c r="E11" s="182"/>
-      <c r="F11" s="182"/>
-      <c r="G11" s="182"/>
-      <c r="H11" s="182"/>
-      <c r="I11" s="182"/>
-      <c r="J11" s="182"/>
-      <c r="K11" s="182"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A12" s="182" t="s">
+      <c r="B16" s="191"/>
+      <c r="C16" s="191"/>
+      <c r="D16" s="191"/>
+      <c r="E16" s="191"/>
+      <c r="F16" s="191"/>
+      <c r="G16" s="191"/>
+      <c r="H16" s="191"/>
+      <c r="I16" s="191"/>
+      <c r="J16" s="191"/>
+      <c r="K16" s="191"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A17" s="191" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" s="191"/>
+      <c r="C17" s="191"/>
+      <c r="D17" s="191"/>
+      <c r="E17" s="191"/>
+      <c r="F17" s="191"/>
+      <c r="G17" s="191"/>
+      <c r="H17" s="191"/>
+      <c r="I17" s="191"/>
+      <c r="J17" s="191"/>
+      <c r="K17" s="191"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A18" s="191" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" s="191"/>
+      <c r="C18" s="191"/>
+      <c r="D18" s="191"/>
+      <c r="E18" s="191"/>
+      <c r="F18" s="191"/>
+      <c r="G18" s="191"/>
+      <c r="H18" s="191"/>
+      <c r="I18" s="191"/>
+      <c r="J18" s="191"/>
+      <c r="K18" s="191"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A19" s="191" t="s">
+        <v>148</v>
+      </c>
+      <c r="B19" s="191"/>
+      <c r="C19" s="191"/>
+      <c r="D19" s="191"/>
+      <c r="E19" s="191"/>
+      <c r="F19" s="191"/>
+      <c r="G19" s="191"/>
+      <c r="H19" s="191"/>
+      <c r="I19" s="191"/>
+      <c r="J19" s="191"/>
+      <c r="K19" s="191"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A20" s="191" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="191"/>
+      <c r="C20" s="191"/>
+      <c r="D20" s="191"/>
+      <c r="E20" s="191"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A21" s="191" t="s">
+        <v>120</v>
+      </c>
+      <c r="B21" s="191"/>
+      <c r="C21" s="191"/>
+      <c r="D21" s="191"/>
+      <c r="E21" s="191"/>
+      <c r="F21" s="191"/>
+      <c r="G21" s="191"/>
+      <c r="H21" s="191"/>
+      <c r="I21" s="191"/>
+      <c r="J21" s="191"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A22" s="191" t="s">
+        <v>121</v>
+      </c>
+      <c r="B22" s="191"/>
+      <c r="C22" s="191"/>
+      <c r="D22" s="191"/>
+      <c r="E22" s="191"/>
+      <c r="F22" s="191"/>
+      <c r="G22" s="191"/>
+      <c r="H22" s="191"/>
+      <c r="I22" s="191"/>
+      <c r="J22" s="191"/>
+      <c r="K22" s="191"/>
+      <c r="L22" s="191"/>
+      <c r="M22" s="191"/>
+      <c r="N22" s="191"/>
+      <c r="O22" s="191"/>
+      <c r="P22" s="191"/>
+      <c r="Q22" s="191"/>
+      <c r="R22" s="191"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A23" s="191" t="s">
+        <v>122</v>
+      </c>
+      <c r="B23" s="191"/>
+      <c r="C23" s="191"/>
+      <c r="D23" s="191"/>
+      <c r="E23" s="191"/>
+      <c r="F23" s="191"/>
+      <c r="G23" s="191"/>
+      <c r="H23" s="191"/>
+      <c r="I23" s="191"/>
+      <c r="J23" s="191"/>
+      <c r="K23" s="191"/>
+      <c r="L23" s="191"/>
+      <c r="M23" s="191"/>
+      <c r="N23" s="191"/>
+      <c r="O23" s="191"/>
+      <c r="P23" s="191"/>
+      <c r="Q23" s="191"/>
+      <c r="R23" s="191"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A25" s="191" t="s">
         <v>76</v>
       </c>
-      <c r="B12" s="182"/>
-      <c r="C12" s="182"/>
-      <c r="D12" s="182"/>
-      <c r="E12" s="182"/>
-      <c r="F12" s="182"/>
-      <c r="G12" s="182"/>
-      <c r="H12" s="182"/>
-      <c r="I12" s="182"/>
-      <c r="J12" s="182"/>
-      <c r="K12" s="182"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A13" s="182" t="s">
-        <v>73</v>
-      </c>
-      <c r="B13" s="182"/>
-      <c r="C13" s="182"/>
-      <c r="D13" s="182"/>
-      <c r="E13" s="182"/>
-      <c r="F13" s="182"/>
-      <c r="G13" s="182"/>
-      <c r="H13" s="182"/>
-      <c r="I13" s="182"/>
-      <c r="J13" s="182"/>
-      <c r="K13" s="182"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A14" s="182" t="s">
-        <v>74</v>
-      </c>
-      <c r="B14" s="182"/>
-      <c r="C14" s="182"/>
-      <c r="D14" s="182"/>
-      <c r="E14" s="182"/>
-      <c r="F14" s="182"/>
-      <c r="G14" s="182"/>
-      <c r="H14" s="182"/>
-      <c r="I14" s="182"/>
-      <c r="J14" s="182"/>
-      <c r="K14" s="182"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A15" s="182" t="s">
-        <v>75</v>
-      </c>
-      <c r="B15" s="182"/>
-      <c r="C15" s="182"/>
-      <c r="D15" s="182"/>
-      <c r="E15" s="182"/>
-      <c r="F15" s="182"/>
-      <c r="G15" s="182"/>
-      <c r="H15" s="182"/>
-      <c r="I15" s="182"/>
-      <c r="J15" s="182"/>
-      <c r="K15" s="182"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A16" s="182" t="s">
+      <c r="B25" s="191"/>
+      <c r="C25" s="191"/>
+      <c r="D25" s="191"/>
+      <c r="E25" s="191"/>
+      <c r="F25" s="191"/>
+      <c r="G25" s="191"/>
+      <c r="H25" s="191"/>
+      <c r="I25" s="191"/>
+      <c r="J25" s="191"/>
+      <c r="K25" s="191"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A26" s="191" t="s">
         <v>77</v>
       </c>
-      <c r="B16" s="182"/>
-      <c r="C16" s="182"/>
-      <c r="D16" s="182"/>
-      <c r="E16" s="182"/>
-      <c r="F16" s="182"/>
-      <c r="G16" s="182"/>
-      <c r="H16" s="182"/>
-      <c r="I16" s="182"/>
-      <c r="J16" s="182"/>
-      <c r="K16" s="182"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A17" s="182" t="s">
-        <v>144</v>
-      </c>
-      <c r="B17" s="182"/>
-      <c r="C17" s="182"/>
-      <c r="D17" s="182"/>
-      <c r="E17" s="182"/>
-      <c r="F17" s="182"/>
-      <c r="G17" s="182"/>
-      <c r="H17" s="182"/>
-      <c r="I17" s="182"/>
-      <c r="J17" s="182"/>
-      <c r="K17" s="182"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A18" s="182" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18" s="182"/>
-      <c r="C18" s="182"/>
-      <c r="D18" s="182"/>
-      <c r="E18" s="182"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A19" s="182" t="s">
-        <v>125</v>
-      </c>
-      <c r="B19" s="182"/>
-      <c r="C19" s="182"/>
-      <c r="D19" s="182"/>
-      <c r="E19" s="182"/>
-      <c r="F19" s="182"/>
-      <c r="G19" s="182"/>
-      <c r="H19" s="182"/>
-      <c r="I19" s="182"/>
-      <c r="J19" s="182"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A20" s="182" t="s">
-        <v>126</v>
-      </c>
-      <c r="B20" s="182"/>
-      <c r="C20" s="182"/>
-      <c r="D20" s="182"/>
-      <c r="E20" s="182"/>
-      <c r="F20" s="182"/>
-      <c r="G20" s="182"/>
-      <c r="H20" s="182"/>
-      <c r="I20" s="182"/>
-      <c r="J20" s="182"/>
-      <c r="K20" s="182"/>
-      <c r="L20" s="182"/>
-      <c r="M20" s="182"/>
-      <c r="N20" s="182"/>
-      <c r="O20" s="182"/>
-      <c r="P20" s="182"/>
-      <c r="Q20" s="182"/>
-      <c r="R20" s="182"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A21" s="182" t="s">
-        <v>127</v>
-      </c>
-      <c r="B21" s="182"/>
-      <c r="C21" s="182"/>
-      <c r="D21" s="182"/>
-      <c r="E21" s="182"/>
-      <c r="F21" s="182"/>
-      <c r="G21" s="182"/>
-      <c r="H21" s="182"/>
-      <c r="I21" s="182"/>
-      <c r="J21" s="182"/>
-      <c r="K21" s="182"/>
-      <c r="L21" s="182"/>
-      <c r="M21" s="182"/>
-      <c r="N21" s="182"/>
-      <c r="O21" s="182"/>
-      <c r="P21" s="182"/>
-      <c r="Q21" s="182"/>
-      <c r="R21" s="182"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A23" s="182" t="s">
+      <c r="B26" s="191"/>
+      <c r="C26" s="191"/>
+      <c r="D26" s="191"/>
+      <c r="E26" s="191"/>
+      <c r="F26" s="191"/>
+      <c r="G26" s="191"/>
+      <c r="H26" s="191"/>
+      <c r="I26" s="191"/>
+      <c r="J26" s="191"/>
+      <c r="K26" s="191"/>
+    </row>
+    <row r="27" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="28" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D28" s="192" t="s">
         <v>78</v>
       </c>
-      <c r="B23" s="182"/>
-      <c r="C23" s="182"/>
-      <c r="D23" s="182"/>
-      <c r="E23" s="182"/>
-      <c r="F23" s="182"/>
-      <c r="G23" s="182"/>
-      <c r="H23" s="182"/>
-      <c r="I23" s="182"/>
-      <c r="J23" s="182"/>
-      <c r="K23" s="182"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A24" s="182" t="s">
+      <c r="E28" s="193"/>
+      <c r="F28" s="193"/>
+      <c r="G28" s="193"/>
+      <c r="H28" s="194"/>
+    </row>
+    <row r="29" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D29" s="41"/>
+      <c r="E29" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="F29" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="G29" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="H29" s="47" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="D30" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="B24" s="182"/>
-      <c r="C24" s="182"/>
-      <c r="D24" s="182"/>
-      <c r="E24" s="182"/>
-      <c r="F24" s="182"/>
-      <c r="G24" s="182"/>
-      <c r="H24" s="182"/>
-      <c r="I24" s="182"/>
-      <c r="J24" s="182"/>
-      <c r="K24" s="182"/>
-    </row>
-    <row r="25" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="26" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D26" s="183" t="s">
+      <c r="E30" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="F30" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="G30" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="H30" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D31" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="E26" s="184"/>
-      <c r="F26" s="184"/>
-      <c r="G26" s="184"/>
-      <c r="H26" s="185"/>
-    </row>
-    <row r="27" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D27" s="41"/>
-      <c r="E27" s="50" t="s">
-        <v>83</v>
-      </c>
-      <c r="F27" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="G27" s="50" t="s">
-        <v>85</v>
-      </c>
-      <c r="H27" s="47" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="D28" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="E28" s="48" t="s">
+      <c r="E31" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="F28" s="48" t="s">
-        <v>87</v>
-      </c>
-      <c r="G28" s="48" t="s">
-        <v>87</v>
-      </c>
-      <c r="H28" s="42" t="s">
+      <c r="F31" s="44" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D29" s="43" t="s">
-        <v>82</v>
-      </c>
-      <c r="E29" s="49" t="s">
+      <c r="G31" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="H31" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="F29" s="44" t="s">
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A34" s="191" t="s">
         <v>90</v>
       </c>
-      <c r="G29" s="49" t="s">
-        <v>90</v>
-      </c>
-      <c r="H29" s="45" t="s">
+      <c r="B34" s="191"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A35" s="191" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A32" s="182" t="s">
-        <v>92</v>
-      </c>
-      <c r="B32" s="182"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A33" s="182" t="s">
-        <v>93</v>
-      </c>
-      <c r="B33" s="182"/>
-      <c r="C33" s="182"/>
-      <c r="D33" s="182"/>
-      <c r="E33" s="182"/>
-      <c r="F33" s="182"/>
-      <c r="G33" s="182"/>
-      <c r="H33" s="182"/>
-      <c r="I33" s="182"/>
-      <c r="J33" s="182"/>
-      <c r="K33" s="182"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A37" s="182" t="s">
-        <v>145</v>
-      </c>
-      <c r="B37" s="182"/>
-      <c r="C37" s="182"/>
-      <c r="D37" s="182"/>
-      <c r="E37" s="182"/>
-      <c r="F37" s="182"/>
+      <c r="B35" s="191"/>
+      <c r="C35" s="191"/>
+      <c r="D35" s="191"/>
+      <c r="E35" s="191"/>
+      <c r="F35" s="191"/>
+      <c r="G35" s="191"/>
+      <c r="H35" s="191"/>
+      <c r="I35" s="191"/>
+      <c r="J35" s="191"/>
+      <c r="K35" s="191"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A39" s="191" t="s">
+        <v>139</v>
+      </c>
+      <c r="B39" s="191"/>
+      <c r="C39" s="191"/>
+      <c r="D39" s="191"/>
+      <c r="E39" s="191"/>
+      <c r="F39" s="191"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="24">
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="A7:K7"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A25:K25"/>
+    <mergeCell ref="A26:K26"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:K35"/>
+    <mergeCell ref="A11:K11"/>
     <mergeCell ref="A3:L3"/>
     <mergeCell ref="A5:H5"/>
-    <mergeCell ref="D26:H26"/>
-    <mergeCell ref="A11:K11"/>
-    <mergeCell ref="A12:K12"/>
+    <mergeCell ref="D28:H28"/>
+    <mergeCell ref="A13:K13"/>
     <mergeCell ref="A14:K14"/>
-    <mergeCell ref="A13:K13"/>
+    <mergeCell ref="A16:K16"/>
     <mergeCell ref="A15:K15"/>
-    <mergeCell ref="A16:K16"/>
+    <mergeCell ref="A17:K17"/>
+    <mergeCell ref="A18:K18"/>
     <mergeCell ref="A8:K8"/>
-    <mergeCell ref="A17:K17"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A19:J19"/>
-    <mergeCell ref="A20:R20"/>
-    <mergeCell ref="A21:R21"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="A7:K7"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A23:K23"/>
-    <mergeCell ref="A24:K24"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:K33"/>
+    <mergeCell ref="A19:K19"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="A22:R22"/>
+    <mergeCell ref="A23:R23"/>
+    <mergeCell ref="A10:K10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I5" r:id="rId1" xr:uid="{294984C6-08D7-42E5-92BE-4925B7B5A8FC}"/>
@@ -3886,10 +3942,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:AA76"/>
+  <dimension ref="A2:AA79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y41" sqref="Y41"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AI58" sqref="AI58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3905,98 +3961,127 @@
     <col min="11" max="11" width="2.54296875" customWidth="1"/>
     <col min="12" max="12" width="3.26953125" customWidth="1"/>
     <col min="13" max="13" width="4.1796875" customWidth="1"/>
-    <col min="14" max="14" width="28.36328125" customWidth="1"/>
-    <col min="15" max="15" width="14.453125" customWidth="1"/>
-    <col min="16" max="16" width="10.26953125" style="3" customWidth="1"/>
-    <col min="17" max="17" width="13.26953125" customWidth="1"/>
-    <col min="18" max="18" width="23.36328125" customWidth="1"/>
-    <col min="19" max="19" width="15.81640625" customWidth="1"/>
-    <col min="20" max="20" width="40.26953125" customWidth="1"/>
-    <col min="21" max="21" width="14.7265625" customWidth="1"/>
-    <col min="22" max="22" width="10" customWidth="1"/>
-    <col min="23" max="23" width="14.1796875" customWidth="1"/>
-    <col min="24" max="24" width="41.1796875" customWidth="1"/>
+    <col min="14" max="14" width="28.36328125" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="14.453125" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="10.26953125" style="3" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="13.26953125" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="23.36328125" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="15.81640625" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="40.26953125" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7265625" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="10" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="14.1796875" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="41.1796875" hidden="1" customWidth="1"/>
     <col min="25" max="25" width="11.54296875" customWidth="1"/>
     <col min="26" max="26" width="17.453125" customWidth="1"/>
     <col min="27" max="27" width="18.1796875" customWidth="1"/>
     <col min="28" max="28" width="3.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="2" spans="3:24" x14ac:dyDescent="0.35">
       <c r="C2" s="18" t="s">
         <v>28</v>
       </c>
       <c r="D2" s="19">
         <v>1</v>
       </c>
-      <c r="O2" s="186" t="s">
-        <v>128</v>
-      </c>
-      <c r="P2" s="187"/>
+      <c r="O2" s="195" t="s">
+        <v>123</v>
+      </c>
+      <c r="P2" s="196"/>
       <c r="Q2" s="176" t="s">
         <v>16</v>
       </c>
       <c r="R2" s="177" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
+        <v>124</v>
+      </c>
+      <c r="T2" s="186" t="s">
+        <v>141</v>
+      </c>
+      <c r="U2" s="176" t="s">
+        <v>95</v>
+      </c>
+      <c r="V2" s="217" t="s">
+        <v>142</v>
+      </c>
+      <c r="W2" s="217"/>
+      <c r="X2" s="218"/>
+    </row>
+    <row r="3" spans="3:24" x14ac:dyDescent="0.35">
       <c r="C3" s="18"/>
       <c r="D3" s="19"/>
       <c r="N3" s="23"/>
-      <c r="O3" s="188"/>
-      <c r="P3" s="189"/>
+      <c r="O3" s="197"/>
+      <c r="P3" s="198"/>
       <c r="Q3" s="178" t="s">
         <v>19</v>
       </c>
       <c r="R3" s="179" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="S3" s="23"/>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="T3" s="187"/>
+      <c r="U3" s="178" t="s">
+        <v>96</v>
+      </c>
+      <c r="V3" s="219" t="s">
+        <v>143</v>
+      </c>
+      <c r="W3" s="219"/>
+      <c r="X3" s="220"/>
+    </row>
+    <row r="4" spans="3:24" x14ac:dyDescent="0.35">
       <c r="C4" s="18"/>
       <c r="D4" s="19"/>
       <c r="N4" s="23"/>
-      <c r="O4" s="188"/>
-      <c r="P4" s="189"/>
+      <c r="O4" s="197"/>
+      <c r="P4" s="198"/>
       <c r="Q4" s="178" t="s">
         <v>18</v>
       </c>
       <c r="R4" s="179" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="S4" s="24"/>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="T4" s="188"/>
+      <c r="U4" s="180" t="s">
+        <v>98</v>
+      </c>
+      <c r="V4" s="221" t="s">
+        <v>144</v>
+      </c>
+      <c r="W4" s="221"/>
+      <c r="X4" s="222"/>
+    </row>
+    <row r="5" spans="3:24" x14ac:dyDescent="0.35">
       <c r="C5" s="18"/>
       <c r="D5" s="19"/>
       <c r="N5" s="23"/>
-      <c r="O5" s="188"/>
-      <c r="P5" s="189"/>
+      <c r="O5" s="197"/>
+      <c r="P5" s="198"/>
       <c r="Q5" s="178" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="R5" s="179" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="S5" s="24"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:24" x14ac:dyDescent="0.35">
       <c r="C6" s="18"/>
       <c r="D6" s="19"/>
       <c r="N6" s="23"/>
-      <c r="O6" s="188"/>
-      <c r="P6" s="189"/>
+      <c r="O6" s="197"/>
+      <c r="P6" s="198"/>
       <c r="Q6" s="178" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="R6" s="179" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="S6" s="24"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:24" x14ac:dyDescent="0.35">
       <c r="C7" s="18" t="s">
         <v>31</v>
       </c>
@@ -4004,1490 +4089,1226 @@
         <v>5</v>
       </c>
       <c r="N7" s="23"/>
-      <c r="O7" s="188"/>
-      <c r="P7" s="189"/>
+      <c r="O7" s="197"/>
+      <c r="P7" s="198"/>
       <c r="Q7" s="178" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="R7" s="179" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="S7" s="23"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:24" x14ac:dyDescent="0.35">
       <c r="C8" s="18" t="s">
         <v>32</v>
       </c>
       <c r="D8" s="19">
         <v>19</v>
       </c>
-      <c r="O8" s="188"/>
-      <c r="P8" s="189"/>
+      <c r="O8" s="197"/>
+      <c r="P8" s="198"/>
       <c r="Q8" s="178" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="R8" s="179" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="3:24" x14ac:dyDescent="0.35">
       <c r="C9" s="9"/>
-      <c r="O9" s="190"/>
-      <c r="P9" s="191"/>
+      <c r="O9" s="199"/>
+      <c r="P9" s="200"/>
       <c r="Q9" s="180" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="R9" s="181" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="3:24" x14ac:dyDescent="0.35">
       <c r="C10" s="18" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:24" x14ac:dyDescent="0.35">
       <c r="C11" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="3:24" x14ac:dyDescent="0.35">
+      <c r="C12" s="18" t="s">
         <v>110</v>
-      </c>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="C12" s="18" t="s">
-        <v>114</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:24" x14ac:dyDescent="0.35">
       <c r="C13" s="18"/>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="O14" s="3"/>
-      <c r="P14"/>
-    </row>
-    <row r="15" spans="1:27" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="53" t="s">
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="3:24" x14ac:dyDescent="0.35">
+      <c r="C14" s="18"/>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="3:24" x14ac:dyDescent="0.35">
+      <c r="C15" s="18"/>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="3:24" x14ac:dyDescent="0.35">
+      <c r="C16" s="18"/>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="O17" s="3"/>
+      <c r="P17"/>
+    </row>
+    <row r="18" spans="1:27" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="54" t="s">
+      <c r="B18" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="55" t="s">
+      <c r="C18" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="56" t="s">
+      <c r="D18" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="E18" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="201" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" s="202"/>
+      <c r="H18" s="202"/>
+      <c r="I18" s="202"/>
+      <c r="J18" s="202"/>
+      <c r="K18" s="202"/>
+      <c r="L18" s="202"/>
+      <c r="M18" s="202"/>
+      <c r="N18" s="51" t="s">
+        <v>93</v>
+      </c>
+      <c r="O18" s="205" t="s">
+        <v>97</v>
+      </c>
+      <c r="P18" s="202"/>
+      <c r="Q18" s="202"/>
+      <c r="R18" s="202"/>
+      <c r="S18" s="206"/>
+      <c r="T18" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="U18" s="215" t="s">
+        <v>97</v>
+      </c>
+      <c r="V18" s="216"/>
+      <c r="W18" s="216"/>
+      <c r="X18" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y18" s="211" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z18" s="212"/>
+      <c r="AA18" s="213"/>
+    </row>
+    <row r="19" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="67"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="J19" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="K19" s="61" t="s">
+        <v>66</v>
+      </c>
+      <c r="L19" s="62" t="s">
+        <v>67</v>
+      </c>
+      <c r="M19" s="62" t="s">
+        <v>68</v>
+      </c>
+      <c r="N19" s="69"/>
+      <c r="O19" s="207" t="s">
+        <v>30</v>
+      </c>
+      <c r="P19" s="208"/>
+      <c r="Q19" s="208"/>
+      <c r="R19" s="208"/>
+      <c r="S19" s="209"/>
+      <c r="T19" s="98"/>
+      <c r="U19" s="207" t="s">
+        <v>30</v>
+      </c>
+      <c r="V19" s="210"/>
+      <c r="W19" s="210"/>
+      <c r="X19" s="210"/>
+      <c r="Y19" s="203" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z19" s="203" t="s">
+        <v>145</v>
+      </c>
+      <c r="AA19" s="203" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="63"/>
+      <c r="B20" s="70"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="73"/>
+      <c r="H20" s="74"/>
+      <c r="I20" s="75"/>
+      <c r="J20" s="76"/>
+      <c r="K20" s="71"/>
+      <c r="L20" s="76"/>
+      <c r="M20" s="76"/>
+      <c r="N20" s="71"/>
+      <c r="O20" s="63" t="s">
+        <v>100</v>
+      </c>
+      <c r="P20" s="64" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q20" s="65" t="s">
+        <v>95</v>
+      </c>
+      <c r="R20" s="65" t="s">
         <v>96</v>
       </c>
-      <c r="E15" s="56" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" s="192" t="s">
-        <v>35</v>
-      </c>
-      <c r="G15" s="193"/>
-      <c r="H15" s="193"/>
-      <c r="I15" s="193"/>
-      <c r="J15" s="193"/>
-      <c r="K15" s="193"/>
-      <c r="L15" s="193"/>
-      <c r="M15" s="193"/>
-      <c r="N15" s="51" t="s">
-        <v>95</v>
-      </c>
-      <c r="O15" s="196" t="s">
+      <c r="S20" s="65" t="s">
+        <v>98</v>
+      </c>
+      <c r="T20" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="U20" s="64" t="s">
+        <v>100</v>
+      </c>
+      <c r="V20" s="65" t="s">
         <v>99</v>
       </c>
-      <c r="P15" s="193"/>
-      <c r="Q15" s="193"/>
-      <c r="R15" s="193"/>
-      <c r="S15" s="197"/>
-      <c r="T15" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="U15" s="206" t="s">
-        <v>99</v>
-      </c>
-      <c r="V15" s="207"/>
-      <c r="W15" s="207"/>
-      <c r="X15" s="52" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y15" s="202" t="s">
+      <c r="W20" s="64" t="s">
+        <v>29</v>
+      </c>
+      <c r="X20" s="64" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y20" s="214"/>
+      <c r="Z20" s="204"/>
+      <c r="AA20" s="204"/>
+    </row>
+    <row r="21" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="77" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="78" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="79"/>
+      <c r="E21" s="79">
+        <v>16</v>
+      </c>
+      <c r="F21" s="80" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="81" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21" s="82" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="83" t="s">
+        <v>64</v>
+      </c>
+      <c r="J21" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="Z15" s="203"/>
-      <c r="AA15" s="204"/>
-    </row>
-    <row r="16" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="67"/>
-      <c r="B16" s="68"/>
-      <c r="C16" s="69"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" s="58" t="s">
-        <v>19</v>
-      </c>
-      <c r="H16" s="59" t="s">
-        <v>18</v>
-      </c>
-      <c r="I16" s="60" t="s">
+      <c r="K21" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="J16" s="62" t="s">
+      <c r="L21" s="84" t="s">
         <v>67</v>
       </c>
-      <c r="K16" s="61" t="s">
+      <c r="M21" s="84" t="s">
         <v>68</v>
       </c>
-      <c r="L16" s="62" t="s">
-        <v>69</v>
-      </c>
-      <c r="M16" s="62" t="s">
-        <v>70</v>
-      </c>
-      <c r="N16" s="69"/>
-      <c r="O16" s="198" t="s">
-        <v>30</v>
-      </c>
-      <c r="P16" s="199"/>
-      <c r="Q16" s="199"/>
-      <c r="R16" s="199"/>
-      <c r="S16" s="200"/>
-      <c r="T16" s="98"/>
-      <c r="U16" s="198" t="s">
-        <v>30</v>
-      </c>
-      <c r="V16" s="201"/>
-      <c r="W16" s="201"/>
-      <c r="X16" s="201"/>
-      <c r="Y16" s="194" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z16" s="194" t="s">
-        <v>112</v>
-      </c>
-      <c r="AA16" s="194" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="63"/>
-      <c r="B17" s="70"/>
-      <c r="C17" s="71"/>
-      <c r="D17" s="71"/>
-      <c r="E17" s="71"/>
-      <c r="F17" s="72"/>
-      <c r="G17" s="73"/>
-      <c r="H17" s="74"/>
-      <c r="I17" s="75"/>
-      <c r="J17" s="76"/>
-      <c r="K17" s="71"/>
-      <c r="L17" s="76"/>
-      <c r="M17" s="76"/>
-      <c r="N17" s="71"/>
-      <c r="O17" s="63" t="s">
-        <v>102</v>
-      </c>
-      <c r="P17" s="64" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q17" s="65" t="s">
-        <v>97</v>
-      </c>
-      <c r="R17" s="65" t="s">
-        <v>98</v>
-      </c>
-      <c r="S17" s="65" t="s">
-        <v>100</v>
-      </c>
-      <c r="T17" s="66" t="s">
-        <v>13</v>
-      </c>
-      <c r="U17" s="64" t="s">
-        <v>102</v>
-      </c>
-      <c r="V17" s="65" t="s">
-        <v>101</v>
-      </c>
-      <c r="W17" s="64" t="s">
-        <v>29</v>
-      </c>
-      <c r="X17" s="64" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y17" s="205"/>
-      <c r="Z17" s="195"/>
-      <c r="AA17" s="195"/>
-    </row>
-    <row r="18" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="99" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="77" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="78" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="79"/>
-      <c r="E18" s="79">
-        <v>16</v>
-      </c>
-      <c r="F18" s="80" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" s="81" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="82" t="s">
-        <v>18</v>
-      </c>
-      <c r="I18" s="83" t="s">
-        <v>66</v>
-      </c>
-      <c r="J18" s="84" t="s">
-        <v>67</v>
-      </c>
-      <c r="K18" s="85" t="s">
-        <v>68</v>
-      </c>
-      <c r="L18" s="84" t="s">
-        <v>69</v>
-      </c>
-      <c r="M18" s="84" t="s">
-        <v>70</v>
-      </c>
-      <c r="N18" s="102">
-        <f>IF(B18="S",1,"")</f>
+      <c r="N21" s="102">
+        <f>IF(B21="S",1,"")</f>
         <v>1</v>
       </c>
-      <c r="O18" s="86"/>
-      <c r="P18" s="78"/>
-      <c r="Q18" s="78"/>
-      <c r="R18" s="78"/>
-      <c r="S18" s="78"/>
-      <c r="T18" s="87"/>
-      <c r="U18" s="86"/>
-      <c r="V18" s="78"/>
-      <c r="W18" s="78"/>
-      <c r="X18" s="78"/>
-      <c r="Y18" s="115">
-        <f>IF($E18=16,$N18*CharDeclAttrSize16,IF($E18=128,$N18*CharDeclAttrSize128,0))</f>
+      <c r="O21" s="86"/>
+      <c r="P21" s="78"/>
+      <c r="Q21" s="78"/>
+      <c r="R21" s="78"/>
+      <c r="S21" s="78"/>
+      <c r="T21" s="87"/>
+      <c r="U21" s="86"/>
+      <c r="V21" s="78"/>
+      <c r="W21" s="78"/>
+      <c r="X21" s="78"/>
+      <c r="Y21" s="115">
+        <f>IF($E21=16,$N21*CharDeclAttrSize16,IF($E21=128,$N21*CharDeclAttrSize128,0))</f>
         <v>5</v>
       </c>
-      <c r="Z18" s="89"/>
-      <c r="AA18" s="88"/>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A19" s="1"/>
-      <c r="B19" s="16" t="str">
+      <c r="Z21" s="89"/>
+      <c r="AA21" s="88"/>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A22" s="1"/>
+      <c r="B22" s="16" t="str">
         <f>IF(D12="x","C"," ")</f>
         <v>C</v>
       </c>
-      <c r="C19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="29">
+      <c r="C22" t="s">
+        <v>140</v>
+      </c>
+      <c r="D22" s="29">
         <v>2</v>
       </c>
-      <c r="E19" s="29">
+      <c r="E22" s="29">
         <v>16</v>
       </c>
-      <c r="F19" s="150" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" s="151" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" s="148" t="s">
+      <c r="F22" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="151" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="148" t="s">
         <v>27</v>
       </c>
-      <c r="I19" s="152" t="s">
-        <v>15</v>
-      </c>
-      <c r="J19" s="153" t="s">
-        <v>15</v>
-      </c>
-      <c r="K19" s="154" t="s">
-        <v>15</v>
-      </c>
-      <c r="L19" s="154" t="s">
-        <v>15</v>
-      </c>
-      <c r="M19" s="154" t="s">
-        <v>15</v>
-      </c>
-      <c r="N19" s="3"/>
-      <c r="O19" s="4">
-        <f>IF(ISBLANK($C19),0,IF($B19="C",1,0))</f>
+      <c r="I22" s="152" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22" s="153" t="s">
+        <v>15</v>
+      </c>
+      <c r="K22" s="154" t="s">
+        <v>15</v>
+      </c>
+      <c r="L22" s="154" t="s">
+        <v>15</v>
+      </c>
+      <c r="M22" s="154" t="s">
+        <v>15</v>
+      </c>
+      <c r="N22" s="3"/>
+      <c r="O22" s="4">
+        <f>IF(ISBLANK($C22),0,IF($B22="C",1,0))</f>
         <v>1</v>
       </c>
-      <c r="P19" s="29">
-        <f>IF(ISBLANK($C19),0,IF($B19="C",1,0))</f>
+      <c r="P22" s="29">
+        <f>IF(ISBLANK($C22),0,IF($B22="C",1,0))</f>
         <v>1</v>
       </c>
-      <c r="Q19" s="29">
-        <f>IF($B19="C",(IF(CONCATENATE($G19,$H19)="--", 0, 1)),IF($B19=" ",0))</f>
+      <c r="Q22" s="29">
+        <f>IF($B22="C",(IF(CONCATENATE($G22,$H22)="--", 0, 1)),0)</f>
         <v>1</v>
       </c>
-      <c r="R19" s="29">
-        <f>IF($B19="C",IF($F19="-",0,1))</f>
-        <v>0</v>
-      </c>
-      <c r="S19" s="29">
-        <f>IF($B19="C",IF($M19="-",0,1))</f>
-        <v>0</v>
-      </c>
-      <c r="T19" s="11">
-        <f>SUM(O19:S19)</f>
+      <c r="R22" s="29">
+        <f>IF($B22="C",IF($F22="-",0,1),0)</f>
+        <v>0</v>
+      </c>
+      <c r="S22" s="29">
+        <f>IF($B22="C",IF($F22="-",0,1),0)</f>
+        <v>0</v>
+      </c>
+      <c r="T22" s="11">
+        <f>SUM(O22:S22)</f>
         <v>3</v>
       </c>
-      <c r="U19" s="4">
-        <f>IF($E19=16,$O19*CharDeclAttrSize16,IF($E19=128,$O19*CharDeclAttrSize128,0))</f>
+      <c r="U22" s="4">
+        <f>IF($E22=16,$O22*CharDeclAttrSize16,IF($E22=128,$O22*CharDeclAttrSize128,0))</f>
         <v>5</v>
       </c>
-      <c r="V19" s="29">
-        <f>P19*D19</f>
+      <c r="V22" s="29">
+        <f>P22*D22</f>
         <v>2</v>
       </c>
-      <c r="W19" s="29">
-        <f>IF($B19="C",(IF(CONCATENATE($G19,$H19)="--", 0, 2*LSM)+IF($F19="-", 0, 2)+IF($M19="-", 0, 2)))</f>
+      <c r="W22" s="29">
+        <f>IF($B22="C",(IF(CONCATENATE($G22,$H22)="--", 0, 2*LSM)+IF($F22="-", 0, 2)+IF($M22="-", 0, 2)),0)</f>
         <v>2</v>
       </c>
-      <c r="X19" s="31">
-        <f>SUM(U19:W19)</f>
+      <c r="X22" s="31">
+        <f>SUM(U22:W22)</f>
         <v>9</v>
       </c>
-      <c r="Y19" s="34">
-        <f>SUM(U19+2*Q19)</f>
+      <c r="Y22" s="34">
+        <f>SUM(U22+2*Q22)</f>
         <v>7</v>
       </c>
-      <c r="Z19" s="34">
-        <f>3*Q19</f>
+      <c r="Z22" s="34">
+        <f>3*Q22</f>
         <v>3</v>
       </c>
-      <c r="AA19" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B20" s="16" t="str">
+      <c r="AA22" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B23" s="16" t="str">
         <f>IF(OR(D10="x",D11="x"),"C"," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C20" t="s">
-        <v>104</v>
-      </c>
-      <c r="D20" s="29">
+      <c r="C23" t="s">
+        <v>102</v>
+      </c>
+      <c r="D23" s="29">
         <v>1</v>
       </c>
-      <c r="E20" s="29">
+      <c r="E23" s="29">
         <v>16</v>
       </c>
-      <c r="F20" s="150" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="150" t="s">
-        <v>15</v>
-      </c>
-      <c r="H20" s="150" t="s">
-        <v>15</v>
-      </c>
-      <c r="I20" s="148" t="s">
+      <c r="F23" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="I23" s="148" t="s">
         <v>27</v>
       </c>
-      <c r="J20" s="150" t="s">
-        <v>15</v>
-      </c>
-      <c r="K20" s="39" t="s">
+      <c r="J23" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="K23" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="L20" s="150" t="s">
-        <v>15</v>
-      </c>
-      <c r="M20" s="150" t="s">
-        <v>15</v>
-      </c>
-      <c r="N20" s="3"/>
-      <c r="O20" s="4">
-        <f t="shared" ref="O20:P22" si="0">IF(ISBLANK($C20),0,IF($B20="C",1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="P20" s="29">
+      <c r="L23" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="M23" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="N23" s="3"/>
+      <c r="O23" s="4">
+        <f t="shared" ref="O23:P25" si="0">IF(ISBLANK($C23),0,IF($B23="C",1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="P23" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q20" s="29" t="b">
-        <f>IF($B20="C",(IF(CONCATENATE($G20,$H20)="--", 0, 1)))</f>
-        <v>0</v>
-      </c>
-      <c r="R20" s="29" t="b">
-        <f t="shared" ref="R20:R22" si="1">IF($B20="C",IF($F20="-",0,1))</f>
-        <v>0</v>
-      </c>
-      <c r="S20" s="29" t="b">
-        <f t="shared" ref="S20:S22" si="2">IF($B20="C",IF($M20="-",0,1))</f>
-        <v>0</v>
-      </c>
-      <c r="T20" s="11">
-        <f t="shared" ref="T20:T22" si="3">SUM(O20:S20)</f>
-        <v>0</v>
-      </c>
-      <c r="U20" s="4">
-        <f>IF($E20=16,$O20*CharDeclAttrSize16,IF($E20=128,$O20*CharDeclAttrSize128,0))</f>
-        <v>0</v>
-      </c>
-      <c r="V20" s="29">
-        <f t="shared" ref="V20:V22" si="4">P20*D20</f>
-        <v>0</v>
-      </c>
-      <c r="W20" s="29" t="b">
-        <f>IF($B20="C",(IF(CONCATENATE($G20,$H20)="--", 0, 2*LSM)+IF($F20="-", 0, 2)+IF($M20="-", 0, 2)))</f>
-        <v>0</v>
-      </c>
-      <c r="X20" s="31">
-        <f t="shared" ref="X20:X22" si="5">SUM(U20:W20)</f>
-        <v>0</v>
-      </c>
-      <c r="Y20" s="34">
-        <f>IF($B20="C",3*LSM,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Z20" s="34">
-        <f>IF($B20="C",3*LSM,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AA20" s="34">
-        <f>IF($B20="C",3*LSM,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B21" s="16" t="str">
+      <c r="Q23" s="29">
+        <f>IF($B23="C",(IF(CONCATENATE($G23,$H23)="--", 0, 1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="R23" s="29">
+        <f t="shared" ref="R23:S25" si="1">IF($B23="C",IF($F23="-",0,1),0)</f>
+        <v>0</v>
+      </c>
+      <c r="S23" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T23" s="11">
+        <f t="shared" ref="T23:T25" si="2">SUM(O23:S23)</f>
+        <v>0</v>
+      </c>
+      <c r="U23" s="4">
+        <f>IF($E23=16,$O23*CharDeclAttrSize16,IF($E23=128,$O23*CharDeclAttrSize128,0))</f>
+        <v>0</v>
+      </c>
+      <c r="V23" s="29">
+        <f t="shared" ref="V23:V25" si="3">P23*D23</f>
+        <v>0</v>
+      </c>
+      <c r="W23" s="29">
+        <f>IF($B23="C",(IF(CONCATENATE($G23,$H23)="--", 0, 2*LSM)+IF($F23="-", 0, 2)+IF($M23="-", 0, 2)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="X23" s="31">
+        <f t="shared" ref="X23:X25" si="4">SUM(U23:W23)</f>
+        <v>0</v>
+      </c>
+      <c r="Y23" s="34">
+        <f>IF($B23="C",3*LSM,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z23" s="34">
+        <f>IF($B23="C",3*LSM,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA23" s="34">
+        <f>IF($B23="C",3*LSM,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B24" s="16" t="str">
         <f>IF(D10="x","C"," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C21" t="s">
-        <v>103</v>
-      </c>
-      <c r="D21" s="29">
+      <c r="C24" t="s">
+        <v>101</v>
+      </c>
+      <c r="D24" s="29">
         <v>16</v>
       </c>
-      <c r="E21" s="29">
+      <c r="E24" s="29">
         <v>16</v>
       </c>
-      <c r="F21" s="150" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" s="150" t="s">
-        <v>15</v>
-      </c>
-      <c r="H21" s="150" t="s">
-        <v>15</v>
-      </c>
-      <c r="I21" s="149" t="s">
+      <c r="F24" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="I24" s="149" t="s">
         <v>27</v>
       </c>
-      <c r="J21" s="150" t="s">
-        <v>15</v>
-      </c>
-      <c r="K21" s="150" t="s">
-        <v>15</v>
-      </c>
-      <c r="L21" s="150" t="s">
-        <v>15</v>
-      </c>
-      <c r="M21" s="150" t="s">
-        <v>15</v>
-      </c>
-      <c r="N21" s="3"/>
-      <c r="O21" s="4">
+      <c r="J24" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="K24" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="L24" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="M24" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="N24" s="3"/>
+      <c r="O24" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P21" s="29">
+      <c r="P24" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q21" s="29" t="b">
-        <f t="shared" ref="Q21:Q22" si="6">IF($B21="C",(IF(CONCATENATE($G21,$H21)="--", 0, 1)))</f>
-        <v>0</v>
-      </c>
-      <c r="R21" s="29" t="b">
+      <c r="Q24" s="29">
+        <f>IF($B24="C",(IF(CONCATENATE($G24,$H24)="--", 0, 1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="R24" s="29">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S21" s="29" t="b">
+      <c r="S24" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T24" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T21" s="11">
+      <c r="U24" s="4">
+        <f>IF($E24=16,$O24*CharDeclAttrSize16,IF($E24=128,$O24*CharDeclAttrSize128,0))</f>
+        <v>0</v>
+      </c>
+      <c r="V24" s="29">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U21" s="4">
-        <f>IF($E21=16,$O21*CharDeclAttrSize16,IF($E21=128,$O21*CharDeclAttrSize128,0))</f>
-        <v>0</v>
-      </c>
-      <c r="V21" s="29">
+      <c r="W24" s="29">
+        <f>IF($B24="C",(IF(CONCATENATE($G24,$H24)="--", 0, 2*LSM)+IF($F24="-", 0, 2)+IF($M24="-", 0, 2)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="X24" s="31">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W21" s="29" t="b">
-        <f>IF($B21="C",(IF(CONCATENATE($G21,$H21)="--", 0, 2*LSM)+IF($F21="-", 0, 2)+IF($M21="-", 0, 2)))</f>
-        <v>0</v>
-      </c>
-      <c r="X21" s="31">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y21" s="34">
-        <f>SUM(U21+2*Q21)</f>
-        <v>0</v>
-      </c>
-      <c r="Z21" s="34">
-        <f>SUM(U21+2*Q21)</f>
-        <v>0</v>
-      </c>
-      <c r="AA21" s="34">
-        <f>SUM(U21+2*Q21)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B22" s="16" t="str">
+      <c r="Y24" s="34">
+        <f t="shared" ref="Y24" si="5">SUM(U24+2*Q24)</f>
+        <v>0</v>
+      </c>
+      <c r="Z24" s="34">
+        <f>SUM(U24+2*Q24)</f>
+        <v>0</v>
+      </c>
+      <c r="AA24" s="34">
+        <f>SUM(U24+2*Q24)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B25" s="16" t="str">
         <f>IF(D11="x","C"," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C22" t="s">
-        <v>106</v>
-      </c>
-      <c r="D22" s="29">
+      <c r="C25" t="s">
+        <v>104</v>
+      </c>
+      <c r="D25" s="29">
         <v>1</v>
       </c>
-      <c r="E22" s="29">
+      <c r="E25" s="29">
         <v>16</v>
       </c>
-      <c r="F22" s="150" t="s">
-        <v>15</v>
-      </c>
-      <c r="G22" s="150" t="s">
-        <v>15</v>
-      </c>
-      <c r="H22" s="150" t="s">
-        <v>15</v>
-      </c>
-      <c r="I22" s="149" t="s">
+      <c r="F25" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25" s="149" t="s">
         <v>27</v>
       </c>
-      <c r="J22" s="150" t="s">
-        <v>15</v>
-      </c>
-      <c r="K22" s="149" t="s">
+      <c r="J25" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="K25" s="149" t="s">
         <v>27</v>
       </c>
-      <c r="L22" s="150" t="s">
-        <v>15</v>
-      </c>
-      <c r="M22" s="150" t="s">
-        <v>15</v>
-      </c>
-      <c r="N22" s="3"/>
-      <c r="O22" s="4">
+      <c r="L25" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="M25" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="N25" s="3"/>
+      <c r="O25" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P22" s="29">
+      <c r="P25" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q22" s="29" t="b">
+      <c r="Q25" s="29">
+        <f>IF($B25="C",(IF(CONCATENATE($G25,$H25)="--", 0, 1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="R25" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S25" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T25" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U25" s="4">
+        <f>IF($E25=16,$O25*CharDeclAttrSize16,IF($E25=128,$O25*CharDeclAttrSize128,0))</f>
+        <v>0</v>
+      </c>
+      <c r="V25" s="29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W25" s="29">
+        <f>IF($B25="C",(IF(CONCATENATE($G25,$H25)="--", 0, 2*LSM)+IF($F25="-", 0, 2)+IF($M25="-", 0, 2)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="X25" s="31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y25" s="34">
+        <f>IF($B25="C",3*LSM,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z25" s="34">
+        <f>IF($B25="C",3*LSM,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA25" s="34">
+        <f>IF($B25="C",3*LSM,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="103"/>
+      <c r="B26" s="104"/>
+      <c r="C26" s="105"/>
+      <c r="D26" s="106">
+        <f>SUM(D22)</f>
+        <v>2</v>
+      </c>
+      <c r="E26" s="106"/>
+      <c r="F26" s="107"/>
+      <c r="G26" s="108"/>
+      <c r="H26" s="108"/>
+      <c r="I26" s="108"/>
+      <c r="J26" s="108"/>
+      <c r="K26" s="108"/>
+      <c r="L26" s="108"/>
+      <c r="M26" s="109"/>
+      <c r="N26" s="110"/>
+      <c r="O26" s="111"/>
+      <c r="P26" s="110"/>
+      <c r="Q26" s="110"/>
+      <c r="R26" s="110"/>
+      <c r="S26" s="110"/>
+      <c r="T26" s="112">
+        <f>SUM(T22:T25)</f>
+        <v>3</v>
+      </c>
+      <c r="U26" s="111">
+        <f>SUM(U22:U25)</f>
+        <v>5</v>
+      </c>
+      <c r="V26" s="111">
+        <f>SUM(V22:V25)</f>
+        <v>2</v>
+      </c>
+      <c r="W26" s="111">
+        <f>SUM(W22:W25)</f>
+        <v>2</v>
+      </c>
+      <c r="X26" s="111">
+        <f>SUM(X22:X25)</f>
+        <v>9</v>
+      </c>
+      <c r="Y26" s="36"/>
+      <c r="Z26" s="36"/>
+      <c r="AA26" s="36"/>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="37"/>
+      <c r="M27" s="37"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="1"/>
+      <c r="P27"/>
+      <c r="T27" s="10"/>
+      <c r="Y27" s="35"/>
+      <c r="Z27" s="35"/>
+      <c r="AA27" s="35"/>
+    </row>
+    <row r="28" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="99" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="77" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="78" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="79"/>
+      <c r="E28" s="79">
+        <v>16</v>
+      </c>
+      <c r="F28" s="80" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" s="81" t="s">
+        <v>19</v>
+      </c>
+      <c r="H28" s="82" t="s">
+        <v>18</v>
+      </c>
+      <c r="I28" s="83" t="s">
+        <v>64</v>
+      </c>
+      <c r="J28" s="84" t="s">
+        <v>65</v>
+      </c>
+      <c r="K28" s="85" t="s">
+        <v>66</v>
+      </c>
+      <c r="L28" s="84" t="s">
+        <v>67</v>
+      </c>
+      <c r="M28" s="84" t="s">
+        <v>68</v>
+      </c>
+      <c r="N28" s="102">
+        <f>IF(B28="S",1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="O28" s="86"/>
+      <c r="P28" s="78"/>
+      <c r="Q28" s="78"/>
+      <c r="R28" s="78"/>
+      <c r="S28" s="78"/>
+      <c r="T28" s="87"/>
+      <c r="U28" s="86"/>
+      <c r="V28" s="78"/>
+      <c r="W28" s="78"/>
+      <c r="X28" s="78"/>
+      <c r="Y28" s="115">
+        <f>IF($E28=16,$N28*CharDeclAttrSize16,IF($E28=128,$N28*CharDeclAttrSize128,0))</f>
+        <v>5</v>
+      </c>
+      <c r="Z28" s="89"/>
+      <c r="AA28" s="89"/>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A29" s="4"/>
+      <c r="B29" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" s="29">
+        <v>6</v>
+      </c>
+      <c r="E29" s="29">
+        <v>16</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I29" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="J29" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="K29" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="L29" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="M29" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="N29" s="3"/>
+      <c r="O29" s="4">
+        <f t="shared" ref="O29:P31" si="6">IF(ISBLANK($C29),0,IF($B29="C",1,0))</f>
+        <v>1</v>
+      </c>
+      <c r="P29" s="29">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="R22" s="29" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S22" s="29" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T22" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U22" s="4">
-        <f>IF($E22=16,$O22*CharDeclAttrSize16,IF($E22=128,$O22*CharDeclAttrSize128,0))</f>
-        <v>0</v>
-      </c>
-      <c r="V22" s="29">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W22" s="29" t="b">
-        <f>IF($B22="C",(IF(CONCATENATE($G22,$H22)="--", 0, 2*LSM)+IF($F22="-", 0, 2)+IF($M22="-", 0, 2)))</f>
-        <v>0</v>
-      </c>
-      <c r="X22" s="31">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y22" s="34">
-        <f>IF($B22="C",3*LSM,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Z22" s="34">
-        <f>IF($B22="C",3*LSM,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AA22" s="34">
-        <f>IF($B22="C",3*LSM,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="103"/>
-      <c r="B23" s="104"/>
-      <c r="C23" s="105"/>
-      <c r="D23" s="106">
-        <f>SUM(D19)</f>
+        <v>1</v>
+      </c>
+      <c r="Q29" s="29">
+        <f>IF($B29="C",(IF(CONCATENATE($G29,$H29)="--", 0, 1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="R29" s="29">
+        <f t="shared" ref="R29:S31" si="7">IF($B29="C",IF($F29="-",0,1),0)</f>
+        <v>0</v>
+      </c>
+      <c r="S29" s="29">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T29" s="11">
+        <f>SUM(O29:S29)</f>
         <v>2</v>
       </c>
-      <c r="E23" s="106"/>
-      <c r="F23" s="107"/>
-      <c r="G23" s="108"/>
-      <c r="H23" s="108"/>
-      <c r="I23" s="108"/>
-      <c r="J23" s="108"/>
-      <c r="K23" s="108"/>
-      <c r="L23" s="108"/>
-      <c r="M23" s="109"/>
-      <c r="N23" s="110"/>
-      <c r="O23" s="111"/>
-      <c r="P23" s="110"/>
-      <c r="Q23" s="110"/>
-      <c r="R23" s="110"/>
-      <c r="S23" s="110"/>
-      <c r="T23" s="112">
-        <f>SUM(T19)</f>
-        <v>3</v>
-      </c>
-      <c r="U23" s="111">
-        <f>SUM(U19:U22)</f>
+      <c r="U29" s="4">
+        <f>IF($E29=16,$O29*CharDeclAttrSize16,IF($E29=128,$O29*CharDeclAttrSize128,0))</f>
         <v>5</v>
       </c>
-      <c r="V23" s="111">
-        <f>SUM(V19:V22)</f>
+      <c r="V29" s="29">
+        <f>P29*D29</f>
+        <v>6</v>
+      </c>
+      <c r="W29" s="29">
+        <f>IF($B29="C",(IF(CONCATENATE($G29,$H29)="--", 0, 2*LSM)+IF($F29="-", 0, 2)+IF($M29="-", 0, 2)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="X29" s="31">
+        <f>SUM(U29:W29)</f>
+        <v>11</v>
+      </c>
+      <c r="Y29" s="34">
+        <f>SUM(U29+2*Q29)</f>
+        <v>5</v>
+      </c>
+      <c r="Z29" s="34">
+        <f>3*Q29</f>
+        <v>0</v>
+      </c>
+      <c r="AA29" s="34">
+        <f>3*R29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A30" s="4"/>
+      <c r="B30" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="29">
         <v>2</v>
       </c>
-      <c r="W23" s="111">
-        <f>SUM(W19:W22)</f>
+      <c r="E30" s="29">
+        <v>16</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I30" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="J30" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="K30" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="L30" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="M30" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="N30" s="3"/>
+      <c r="O30" s="4">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="P30" s="29">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Q30" s="29">
+        <f t="shared" ref="Q30:Q31" si="8">IF($B30="C",(IF(CONCATENATE($G30,$H30)="--", 0, 1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="R30" s="29">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S30" s="29">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T30" s="11">
+        <f t="shared" ref="T30:T31" si="9">SUM(O30:S30)</f>
         <v>2</v>
       </c>
-      <c r="X23" s="111">
-        <f>SUM(X19:X22)</f>
-        <v>9</v>
-      </c>
-      <c r="Y23" s="36"/>
-      <c r="Z23" s="36"/>
-      <c r="AA23" s="36"/>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="37"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="37"/>
-      <c r="M24" s="37"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="1"/>
-      <c r="P24"/>
-      <c r="T24" s="10"/>
-      <c r="Y24" s="35"/>
-      <c r="Z24" s="35"/>
-      <c r="AA24" s="35"/>
-    </row>
-    <row r="25" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="99" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="77" t="s">
+      <c r="U30" s="4">
+        <f>IF($E30=16,$O30*CharDeclAttrSize16,IF($E30=128,$O30*CharDeclAttrSize128,0))</f>
+        <v>5</v>
+      </c>
+      <c r="V30" s="29">
+        <f>P30*D30</f>
+        <v>2</v>
+      </c>
+      <c r="W30" s="29">
+        <f>IF($B30="C",(IF(CONCATENATE($G30,$H30)="--", 0, 2*LSM)+IF($F30="-", 0, 2)+IF($M30="-", 0, 2)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="X30" s="31">
+        <f>SUM(U30:W30)</f>
+        <v>7</v>
+      </c>
+      <c r="Y30" s="34">
+        <f>SUM(U30+2*Q30)</f>
+        <v>5</v>
+      </c>
+      <c r="Z30" s="34">
+        <f t="shared" ref="Z30:AA31" si="10">3*Q30</f>
+        <v>0</v>
+      </c>
+      <c r="AA30" s="34">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A31" s="4"/>
+      <c r="B31" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" s="29">
+        <v>8</v>
+      </c>
+      <c r="E31" s="29">
+        <v>16</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I31" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="J31" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="K31" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="L31" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="M31" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="N31" s="3"/>
+      <c r="O31" s="4">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="P31" s="29">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Q31" s="29">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="R31" s="29">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S31" s="29">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T31" s="11">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="U31" s="4">
+        <f>IF($E31=16,$O31*CharDeclAttrSize16,IF($E31=128,$O31*CharDeclAttrSize128,0))</f>
+        <v>5</v>
+      </c>
+      <c r="V31" s="29">
+        <f>P31*D31</f>
+        <v>8</v>
+      </c>
+      <c r="W31" s="29">
+        <f>IF($B31="C",(IF(CONCATENATE($G31,$H31)="--", 0, 2*LSM)+IF($F31="-", 0, 2)+IF($M31="-", 0, 2)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="X31" s="31">
+        <f>SUM(U31:W31)</f>
+        <v>13</v>
+      </c>
+      <c r="Y31" s="34">
+        <f>SUM(U31+2*Q31)</f>
+        <v>5</v>
+      </c>
+      <c r="Z31" s="34">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AA31" s="34">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="103"/>
+      <c r="B32" s="104"/>
+      <c r="C32" s="105"/>
+      <c r="D32" s="106">
+        <f>SUM(D29:D31)</f>
+        <v>16</v>
+      </c>
+      <c r="E32" s="106"/>
+      <c r="F32" s="107"/>
+      <c r="G32" s="108"/>
+      <c r="H32" s="108"/>
+      <c r="I32" s="108"/>
+      <c r="J32" s="108"/>
+      <c r="K32" s="108"/>
+      <c r="L32" s="108"/>
+      <c r="M32" s="109"/>
+      <c r="N32" s="110"/>
+      <c r="O32" s="113"/>
+      <c r="P32" s="114"/>
+      <c r="Q32" s="114"/>
+      <c r="R32" s="114"/>
+      <c r="S32" s="114"/>
+      <c r="T32" s="112">
+        <f>SUM(T29:T31)</f>
+        <v>6</v>
+      </c>
+      <c r="U32" s="111">
+        <f>SUM(U29:U31)</f>
+        <v>15</v>
+      </c>
+      <c r="V32" s="158">
+        <f>SUM(V29:V31)</f>
+        <v>16</v>
+      </c>
+      <c r="W32" s="110">
+        <f>SUM(W29:W31)</f>
+        <v>0</v>
+      </c>
+      <c r="X32" s="106">
+        <f>SUM(X29:X31)</f>
+        <v>31</v>
+      </c>
+      <c r="Y32" s="36"/>
+      <c r="Z32" s="36"/>
+      <c r="AA32" s="36"/>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="37"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="37"/>
+      <c r="M33" s="37"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="1"/>
+      <c r="P33"/>
+      <c r="T33" s="10"/>
+      <c r="Y33" s="35"/>
+      <c r="Z33" s="35"/>
+      <c r="AA33" s="35"/>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="37"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="37"/>
+      <c r="M34" s="37"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="1"/>
+      <c r="P34"/>
+      <c r="T34" s="10"/>
+      <c r="Y34" s="35"/>
+      <c r="Z34" s="35"/>
+      <c r="AA34" s="35"/>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A35" s="100" t="s">
+        <v>117</v>
+      </c>
+      <c r="B35" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="78" t="s">
-        <v>39</v>
-      </c>
-      <c r="D25" s="79"/>
-      <c r="E25" s="79">
+      <c r="C35" s="90"/>
+      <c r="D35" s="90"/>
+      <c r="E35" s="91">
         <v>16</v>
       </c>
-      <c r="F25" s="80" t="s">
+      <c r="F35" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="G25" s="81" t="s">
+      <c r="G35" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="H25" s="82" t="s">
+      <c r="H35" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="I25" s="83" t="s">
+      <c r="I35" s="83" t="s">
+        <v>64</v>
+      </c>
+      <c r="J35" s="84" t="s">
+        <v>65</v>
+      </c>
+      <c r="K35" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="J25" s="84" t="s">
+      <c r="L35" s="84" t="s">
         <v>67</v>
       </c>
-      <c r="K25" s="85" t="s">
+      <c r="M35" s="84" t="s">
         <v>68</v>
       </c>
-      <c r="L25" s="84" t="s">
-        <v>69</v>
-      </c>
-      <c r="M25" s="84" t="s">
-        <v>70</v>
-      </c>
-      <c r="N25" s="102">
-        <f>IF(B25="S",1,"")</f>
+      <c r="N35" s="102">
+        <f>IF(B35="S",1,"")</f>
         <v>1</v>
       </c>
-      <c r="O25" s="86"/>
-      <c r="P25" s="78"/>
-      <c r="Q25" s="78"/>
-      <c r="R25" s="78"/>
-      <c r="S25" s="78"/>
-      <c r="T25" s="87"/>
-      <c r="U25" s="86"/>
-      <c r="V25" s="78"/>
-      <c r="W25" s="78"/>
-      <c r="X25" s="78"/>
-      <c r="Y25" s="115">
-        <f>IF($E25=16,$N25*CharDeclAttrSize16,IF($E25=128,$N25*CharDeclAttrSize128,0))</f>
+      <c r="O35" s="92"/>
+      <c r="P35" s="93"/>
+      <c r="Q35" s="93"/>
+      <c r="R35" s="93"/>
+      <c r="S35" s="93"/>
+      <c r="T35" s="94"/>
+      <c r="U35" s="92"/>
+      <c r="V35" s="93"/>
+      <c r="W35" s="93"/>
+      <c r="X35" s="93"/>
+      <c r="Y35" s="95">
+        <f>IF(ISBLANK($B35),0,IF($E35=16,$N35*CharDeclAttrSize16,IF($E35=128,$N35*CharDeclAttrSize128,0)))</f>
         <v>5</v>
       </c>
-      <c r="Z25" s="89"/>
-      <c r="AA25" s="89"/>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A26" s="4"/>
-      <c r="B26" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" t="s">
-        <v>40</v>
-      </c>
-      <c r="D26" s="29">
-        <v>6</v>
-      </c>
-      <c r="E26" s="29">
-        <v>16</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H26" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="I26" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="J26" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="K26" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="L26" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="M26" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="N26" s="3"/>
-      <c r="O26" s="4">
-        <f t="shared" ref="O26:P28" si="7">IF(ISBLANK($C26),0,IF($B26="C",1,0))</f>
-        <v>1</v>
-      </c>
-      <c r="P26" s="29">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="Q26" s="29">
-        <f>IF($B26="C",(IF(CONCATENATE($G26,$H26)="--", 0, 1)))</f>
-        <v>0</v>
-      </c>
-      <c r="R26" s="29">
-        <f>IF($B26="C",IF($F26="-",0,1))</f>
-        <v>0</v>
-      </c>
-      <c r="S26" s="29">
-        <f>IF($B26="C",IF($M26="-",0,1))</f>
-        <v>0</v>
-      </c>
-      <c r="T26" s="11">
-        <f>SUM(O26:S26)</f>
-        <v>2</v>
-      </c>
-      <c r="U26" s="4">
-        <f>IF($E26=16,$O26*CharDeclAttrSize16,IF($E26=128,$O26*CharDeclAttrSize128,0))</f>
-        <v>5</v>
-      </c>
-      <c r="V26" s="29">
-        <f>P26*D26</f>
-        <v>6</v>
-      </c>
-      <c r="W26" s="29">
-        <f>IF($B26="C",(IF(CONCATENATE($G26,$H26)="--", 0, 2*LSM)+IF($F26="-", 0, 2)+IF($M26="-", 0, 2)))</f>
-        <v>0</v>
-      </c>
-      <c r="X26" s="31">
-        <f>SUM(U26:W26)</f>
-        <v>11</v>
-      </c>
-      <c r="Y26" s="34">
-        <f>SUM(U26+2*Q26)</f>
-        <v>5</v>
-      </c>
-      <c r="Z26" s="34">
-        <f>3*Q26</f>
-        <v>0</v>
-      </c>
-      <c r="AA26" s="34">
-        <f>3*R26</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A27" s="4"/>
-      <c r="B27" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" t="s">
-        <v>41</v>
-      </c>
-      <c r="D27" s="29">
-        <v>2</v>
-      </c>
-      <c r="E27" s="29">
-        <v>16</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H27" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="I27" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="J27" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="K27" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="L27" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="M27" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="N27" s="3"/>
-      <c r="O27" s="4">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="P27" s="29">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="Q27" s="29">
-        <f t="shared" ref="Q27:Q28" si="8">IF($B27="C",(IF(CONCATENATE($G27,$H27)="--", 0, 1)))</f>
-        <v>0</v>
-      </c>
-      <c r="R27" s="29">
-        <f t="shared" ref="R27:R28" si="9">IF($B27="C",IF($F27="-",0,1))</f>
-        <v>0</v>
-      </c>
-      <c r="S27" s="29">
-        <f t="shared" ref="S27:S28" si="10">IF($B27="C",IF($M27="-",0,1))</f>
-        <v>0</v>
-      </c>
-      <c r="T27" s="11">
-        <f t="shared" ref="T27:T28" si="11">SUM(O27:S27)</f>
-        <v>2</v>
-      </c>
-      <c r="U27" s="4">
-        <f>IF($E27=16,$O27*CharDeclAttrSize16,IF($E27=128,$O27*CharDeclAttrSize128,0))</f>
-        <v>5</v>
-      </c>
-      <c r="V27" s="29">
-        <f>P27*D27</f>
-        <v>2</v>
-      </c>
-      <c r="W27" s="29">
-        <f>IF($B27="C",(IF(CONCATENATE($G27,$H27)="--", 0, 2*LSM)+IF($F27="-", 0, 2)+IF($M27="-", 0, 2)))</f>
-        <v>0</v>
-      </c>
-      <c r="X27" s="31">
-        <f>SUM(U27:W27)</f>
-        <v>7</v>
-      </c>
-      <c r="Y27" s="34">
-        <f>SUM(U27+2*Q27)</f>
-        <v>5</v>
-      </c>
-      <c r="Z27" s="34">
-        <f t="shared" ref="Z27:AA28" si="12">3*Q27</f>
-        <v>0</v>
-      </c>
-      <c r="AA27" s="34">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A28" s="4"/>
-      <c r="B28" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" t="s">
-        <v>42</v>
-      </c>
-      <c r="D28" s="29">
-        <v>8</v>
-      </c>
-      <c r="E28" s="29">
-        <v>16</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H28" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="I28" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="J28" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="K28" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="L28" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="M28" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="N28" s="3"/>
-      <c r="O28" s="4">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="P28" s="29">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="Q28" s="29">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="R28" s="29">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="S28" s="29">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="T28" s="11">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="U28" s="4">
-        <f>IF($E28=16,$O28*CharDeclAttrSize16,IF($E28=128,$O28*CharDeclAttrSize128,0))</f>
-        <v>5</v>
-      </c>
-      <c r="V28" s="29">
-        <f>P28*D28</f>
-        <v>8</v>
-      </c>
-      <c r="W28" s="29">
-        <f>IF($B28="C",(IF(CONCATENATE($G28,$H28)="--", 0, 2*LSM)+IF($F28="-", 0, 2)+IF($M28="-", 0, 2)))</f>
-        <v>0</v>
-      </c>
-      <c r="X28" s="31">
-        <f>SUM(U28:W28)</f>
-        <v>13</v>
-      </c>
-      <c r="Y28" s="34">
-        <f>SUM(U28+2*Q28)</f>
-        <v>5</v>
-      </c>
-      <c r="Z28" s="34">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AA28" s="34">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="103"/>
-      <c r="B29" s="104"/>
-      <c r="C29" s="105"/>
-      <c r="D29" s="106">
-        <f>SUM(D26:D28)</f>
-        <v>16</v>
-      </c>
-      <c r="E29" s="106"/>
-      <c r="F29" s="107"/>
-      <c r="G29" s="108"/>
-      <c r="H29" s="108"/>
-      <c r="I29" s="108"/>
-      <c r="J29" s="108"/>
-      <c r="K29" s="108"/>
-      <c r="L29" s="108"/>
-      <c r="M29" s="109"/>
-      <c r="N29" s="110"/>
-      <c r="O29" s="113"/>
-      <c r="P29" s="114"/>
-      <c r="Q29" s="114"/>
-      <c r="R29" s="114"/>
-      <c r="S29" s="114"/>
-      <c r="T29" s="112">
-        <f>SUM(T26:T28)</f>
-        <v>6</v>
-      </c>
-      <c r="U29" s="111">
-        <f>SUM(U26:U28)</f>
-        <v>15</v>
-      </c>
-      <c r="V29" s="158">
-        <f>SUM(V26:V28)</f>
-        <v>16</v>
-      </c>
-      <c r="W29" s="110">
-        <f>SUM(W26:W28)</f>
-        <v>0</v>
-      </c>
-      <c r="X29" s="106">
-        <f>SUM(X26:X28)</f>
-        <v>31</v>
-      </c>
-      <c r="Y29" s="36"/>
-      <c r="Z29" s="36"/>
-      <c r="AA29" s="36"/>
-    </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="37"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="37"/>
-      <c r="M30" s="37"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="1"/>
-      <c r="P30"/>
-      <c r="T30" s="10"/>
-      <c r="Y30" s="35"/>
-      <c r="Z30" s="35"/>
-      <c r="AA30" s="35"/>
-    </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="37"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="37"/>
-      <c r="M31" s="37"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="1"/>
-      <c r="P31"/>
-      <c r="T31" s="10"/>
-      <c r="Y31" s="35"/>
-      <c r="Z31" s="35"/>
-      <c r="AA31" s="35"/>
-    </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A32" s="100" t="s">
-        <v>121</v>
-      </c>
-      <c r="B32" s="77" t="s">
-        <v>20</v>
-      </c>
-      <c r="C32" s="90"/>
-      <c r="D32" s="90"/>
-      <c r="E32" s="91">
-        <v>16</v>
-      </c>
-      <c r="F32" s="80" t="s">
-        <v>16</v>
-      </c>
-      <c r="G32" s="81" t="s">
-        <v>19</v>
-      </c>
-      <c r="H32" s="82" t="s">
-        <v>18</v>
-      </c>
-      <c r="I32" s="83" t="s">
-        <v>66</v>
-      </c>
-      <c r="J32" s="84" t="s">
-        <v>67</v>
-      </c>
-      <c r="K32" s="85" t="s">
-        <v>68</v>
-      </c>
-      <c r="L32" s="84" t="s">
-        <v>69</v>
-      </c>
-      <c r="M32" s="84" t="s">
-        <v>70</v>
-      </c>
-      <c r="N32" s="102">
-        <f>IF(B32="S",1,"")</f>
-        <v>1</v>
-      </c>
-      <c r="O32" s="92"/>
-      <c r="P32" s="93"/>
-      <c r="Q32" s="93"/>
-      <c r="R32" s="93"/>
-      <c r="S32" s="93"/>
-      <c r="T32" s="94"/>
-      <c r="U32" s="92"/>
-      <c r="V32" s="93"/>
-      <c r="W32" s="93"/>
-      <c r="X32" s="93"/>
-      <c r="Y32" s="115">
-        <f>IF($E32=16,$N32*CharDeclAttrSize16,IF($E32=128,$N32*CharDeclAttrSize128,0))</f>
-        <v>5</v>
-      </c>
-      <c r="Z32" s="96"/>
-      <c r="AA32" s="96"/>
-    </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A33" s="8"/>
-      <c r="B33" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C33" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="D33" s="25">
-        <v>11</v>
-      </c>
-      <c r="E33" s="29">
-        <v>16</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H33" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I33" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="J33" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="K33" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="L33" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="M33" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="N33" s="3"/>
-      <c r="O33" s="4">
-        <f>IF(ISBLANK($C33),0,IF($B33="C",1,0))</f>
-        <v>1</v>
-      </c>
-      <c r="P33" s="29">
-        <f>IF(ISBLANK($C33),0,IF($B33="C",1,0))</f>
-        <v>1</v>
-      </c>
-      <c r="Q33" s="29">
-        <f t="shared" ref="Q33:Q40" si="13">IF($B33="C",(IF(CONCATENATE($G33,$H33)="--", 0, 1)))</f>
-        <v>0</v>
-      </c>
-      <c r="R33" s="29">
-        <f t="shared" ref="R33:R40" si="14">IF($B33="C",IF($F33="-",0,1))</f>
-        <v>0</v>
-      </c>
-      <c r="S33" s="29">
-        <f t="shared" ref="S33:S40" si="15">IF($B33="C",IF($M33="-",0,1))</f>
-        <v>0</v>
-      </c>
-      <c r="T33" s="11">
-        <f t="shared" ref="T33:T40" si="16">SUM(O33:S33)</f>
-        <v>2</v>
-      </c>
-      <c r="U33" s="4">
-        <f t="shared" ref="U33:U40" si="17">IF($E33=16,$O33*CharDeclAttrSize16,IF($E33=128,$O33*CharDeclAttrSize128,0))</f>
-        <v>5</v>
-      </c>
-      <c r="V33" s="29">
-        <f t="shared" ref="V33:V40" si="18">P33*D33</f>
-        <v>11</v>
-      </c>
-      <c r="W33" s="29">
-        <f t="shared" ref="W33:W40" si="19">IF($B33="C",(IF(CONCATENATE($G33,$H33)="--", 0, 2*LSM)+IF($F33="-", 0, 2)+IF($M33="-", 0, 2)))</f>
-        <v>0</v>
-      </c>
-      <c r="X33" s="31">
-        <f t="shared" ref="X33:X40" si="20">SUM(U33:W33)</f>
-        <v>16</v>
-      </c>
-      <c r="Y33" s="34">
-        <f t="shared" ref="Y33:Y40" si="21">SUM(U33+2*Q33)</f>
-        <v>5</v>
-      </c>
-      <c r="Z33" s="34">
-        <f t="shared" ref="Z33:Z40" si="22">3*Q33</f>
-        <v>0</v>
-      </c>
-      <c r="AA33" s="34">
-        <f>3*Q33</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A34" s="8"/>
-      <c r="B34" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C34" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="D34" s="26">
-        <v>19</v>
-      </c>
-      <c r="E34" s="29">
-        <v>16</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I34" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="J34" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="K34" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="L34" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="M34" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="N34" s="3"/>
-      <c r="O34" s="4">
-        <f t="shared" ref="O34:P40" si="23">IF(ISBLANK($C34),0,IF($B34="C",1,0))</f>
-        <v>1</v>
-      </c>
-      <c r="P34" s="29">
-        <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-      <c r="Q34" s="29">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="R34" s="29">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="S34" s="29">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="T34" s="11">
-        <f t="shared" si="16"/>
-        <v>3</v>
-      </c>
-      <c r="U34" s="4">
-        <f t="shared" si="17"/>
-        <v>5</v>
-      </c>
-      <c r="V34" s="29">
-        <f t="shared" si="18"/>
-        <v>19</v>
-      </c>
-      <c r="W34" s="29">
-        <f t="shared" si="19"/>
-        <v>2</v>
-      </c>
-      <c r="X34" s="31">
-        <f t="shared" si="20"/>
-        <v>26</v>
-      </c>
-      <c r="Y34" s="34">
-        <f t="shared" si="21"/>
-        <v>7</v>
-      </c>
-      <c r="Z34" s="34">
-        <f t="shared" si="22"/>
-        <v>3</v>
-      </c>
-      <c r="AA34" s="34">
-        <f t="shared" ref="AA34:AA40" si="24">3*Q34</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A35" s="8"/>
-      <c r="B35" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C35" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="D35" s="25">
-        <v>10</v>
-      </c>
-      <c r="E35" s="29">
-        <v>16</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H35" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I35" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="J35" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="K35" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="L35" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="M35" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="N35" s="3"/>
-      <c r="O35" s="4">
-        <f>IF(ISBLANK($C35),0,IF($B35="C",1,0))</f>
-        <v>1</v>
-      </c>
-      <c r="P35" s="29">
-        <f>IF(ISBLANK($C35),0,IF($B35="C",1,0))</f>
-        <v>1</v>
-      </c>
-      <c r="Q35" s="29">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="R35" s="29">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="S35" s="29">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="T35" s="11">
-        <f t="shared" si="16"/>
-        <v>2</v>
-      </c>
-      <c r="U35" s="4">
-        <f t="shared" si="17"/>
-        <v>5</v>
-      </c>
-      <c r="V35" s="29">
-        <f t="shared" si="18"/>
-        <v>10</v>
-      </c>
-      <c r="W35" s="29">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="X35" s="31">
-        <f t="shared" si="20"/>
-        <v>15</v>
-      </c>
-      <c r="Y35" s="34">
-        <f t="shared" si="21"/>
-        <v>5</v>
-      </c>
-      <c r="Z35" s="34">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AA35" s="34">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
+      <c r="Z35" s="96"/>
+      <c r="AA35" s="96"/>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A36" s="8"/>
       <c r="B36" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C36" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="D36" s="26">
-        <v>2</v>
+      <c r="C36" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="D36" s="25">
+        <v>11</v>
       </c>
       <c r="E36" s="29">
         <v>16</v>
@@ -5495,10 +5316,10 @@
       <c r="F36" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G36" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H36" s="6" t="s">
+      <c r="G36" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H36" s="7" t="s">
         <v>15</v>
       </c>
       <c r="I36" s="32" t="s">
@@ -5518,55 +5339,55 @@
       </c>
       <c r="N36" s="3"/>
       <c r="O36" s="4">
-        <f t="shared" si="23"/>
+        <f>IF(ISBLANK($C36),0,IF($B36="C",1,0))</f>
         <v>1</v>
       </c>
       <c r="P36" s="29">
-        <f t="shared" si="23"/>
+        <f>IF(ISBLANK($C36),0,IF($B36="C",1,0))</f>
         <v>1</v>
       </c>
       <c r="Q36" s="29">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="Q36:Q43" si="11">IF($B36="C",(IF(CONCATENATE($G36,$H36)="--", 0, 1)),0)</f>
         <v>0</v>
       </c>
       <c r="R36" s="29">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="R36:S43" si="12">IF($B36="C",IF($F36="-",0,1),0)</f>
         <v>0</v>
       </c>
       <c r="S36" s="29">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="T36" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="T36:T43" si="13">SUM(O36:S36)</f>
         <v>2</v>
       </c>
       <c r="U36" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="U36:U43" si="14">IF($E36=16,$O36*CharDeclAttrSize16,IF($E36=128,$O36*CharDeclAttrSize128,0))</f>
         <v>5</v>
       </c>
       <c r="V36" s="29">
-        <f t="shared" si="18"/>
-        <v>2</v>
+        <f t="shared" ref="V36:V43" si="15">P36*D36</f>
+        <v>11</v>
       </c>
       <c r="W36" s="29">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="W36:W43" si="16">IF($B36="C",(IF(CONCATENATE($G36,$H36)="--", 0, 2*LSM)+IF($F36="-", 0, 2)+IF($M36="-", 0, 2)),0)</f>
         <v>0</v>
       </c>
       <c r="X36" s="31">
-        <f t="shared" si="20"/>
-        <v>7</v>
+        <f t="shared" ref="X36:X43" si="17">SUM(U36:W36)</f>
+        <v>16</v>
       </c>
       <c r="Y36" s="34">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="Y36:Y43" si="18">SUM(U36+2*Q36)</f>
         <v>5</v>
       </c>
       <c r="Z36" s="34">
-        <f t="shared" si="22"/>
+        <f t="shared" ref="Z36:Z43" si="19">3*Q36</f>
         <v>0</v>
       </c>
       <c r="AA36" s="34">
-        <f t="shared" si="24"/>
+        <f>3*Q36</f>
         <v>0</v>
       </c>
     </row>
@@ -5575,11 +5396,11 @@
       <c r="B37" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C37" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="D37" s="25">
-        <v>32</v>
+      <c r="C37" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D37" s="26">
+        <v>19</v>
       </c>
       <c r="E37" s="29">
         <v>16</v>
@@ -5587,10 +5408,10 @@
       <c r="F37" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G37" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H37" s="7" t="s">
+      <c r="G37" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H37" s="6" t="s">
         <v>15</v>
       </c>
       <c r="I37" s="32" t="s">
@@ -5610,56 +5431,56 @@
       </c>
       <c r="N37" s="3"/>
       <c r="O37" s="4">
-        <f>IF(ISBLANK($C37),0,IF($B37="C",1,0))</f>
+        <f t="shared" ref="O37:P43" si="20">IF(ISBLANK($C37),0,IF($B37="C",1,0))</f>
         <v>1</v>
       </c>
       <c r="P37" s="29">
-        <f>IF(ISBLANK($C37),0,IF($B37="C",1,0))</f>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="Q37" s="29">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="R37" s="29">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="S37" s="29">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="T37" s="11">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="R37" s="29">
+        <v>3</v>
+      </c>
+      <c r="U37" s="4">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="S37" s="29">
+        <v>5</v>
+      </c>
+      <c r="V37" s="29">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="T37" s="11">
+        <v>19</v>
+      </c>
+      <c r="W37" s="29">
         <f t="shared" si="16"/>
         <v>2</v>
       </c>
-      <c r="U37" s="4">
+      <c r="X37" s="31">
         <f t="shared" si="17"/>
-        <v>5</v>
-      </c>
-      <c r="V37" s="29">
+        <v>26</v>
+      </c>
+      <c r="Y37" s="34">
         <f t="shared" si="18"/>
-        <v>32</v>
-      </c>
-      <c r="W37" s="29">
+        <v>7</v>
+      </c>
+      <c r="Z37" s="34">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="X37" s="31">
-        <f t="shared" si="20"/>
-        <v>37</v>
-      </c>
-      <c r="Y37" s="34">
-        <f t="shared" si="21"/>
-        <v>5</v>
-      </c>
-      <c r="Z37" s="34">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA37" s="34">
-        <f t="shared" si="24"/>
-        <v>0</v>
+        <f t="shared" ref="AA37:AA43" si="21">3*Q37</f>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.35">
@@ -5667,11 +5488,11 @@
       <c r="B38" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="D38" s="26">
-        <v>8</v>
+      <c r="C38" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="D38" s="25">
+        <v>10</v>
       </c>
       <c r="E38" s="29">
         <v>16</v>
@@ -5679,20 +5500,20 @@
       <c r="F38" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G38" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H38" s="6" t="s">
+      <c r="G38" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H38" s="7" t="s">
         <v>15</v>
       </c>
       <c r="I38" s="32" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="J38" s="37" t="s">
         <v>15</v>
       </c>
       <c r="K38" s="37" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="L38" s="37" t="s">
         <v>15</v>
@@ -5702,55 +5523,55 @@
       </c>
       <c r="N38" s="3"/>
       <c r="O38" s="4">
-        <f t="shared" si="23"/>
+        <f>IF(ISBLANK($C38),0,IF($B38="C",1,0))</f>
         <v>1</v>
       </c>
       <c r="P38" s="29">
-        <f t="shared" si="23"/>
+        <f>IF(ISBLANK($C38),0,IF($B38="C",1,0))</f>
         <v>1</v>
       </c>
       <c r="Q38" s="29">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R38" s="29">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="S38" s="29">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="T38" s="11">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="R38" s="29">
+        <v>2</v>
+      </c>
+      <c r="U38" s="4">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="S38" s="29">
+        <v>5</v>
+      </c>
+      <c r="V38" s="29">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="T38" s="11">
+        <v>10</v>
+      </c>
+      <c r="W38" s="29">
         <f t="shared" si="16"/>
-        <v>2</v>
-      </c>
-      <c r="U38" s="4">
+        <v>0</v>
+      </c>
+      <c r="X38" s="31">
         <f t="shared" si="17"/>
+        <v>15</v>
+      </c>
+      <c r="Y38" s="34">
+        <f t="shared" si="18"/>
         <v>5</v>
       </c>
-      <c r="V38" s="29">
-        <f t="shared" si="18"/>
-        <v>8</v>
-      </c>
-      <c r="W38" s="29">
+      <c r="Z38" s="34">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="X38" s="31">
-        <f t="shared" si="20"/>
-        <v>13</v>
-      </c>
-      <c r="Y38" s="34">
+      <c r="AA38" s="34">
         <f t="shared" si="21"/>
-        <v>5</v>
-      </c>
-      <c r="Z38" s="34">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AA38" s="34">
-        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -5759,11 +5580,11 @@
       <c r="B39" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C39" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="D39" s="25">
-        <v>1</v>
+      <c r="C39" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="D39" s="26">
+        <v>2</v>
       </c>
       <c r="E39" s="29">
         <v>16</v>
@@ -5771,10 +5592,10 @@
       <c r="F39" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G39" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H39" s="7" t="s">
+      <c r="G39" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H39" s="6" t="s">
         <v>15</v>
       </c>
       <c r="I39" s="32" t="s">
@@ -5794,55 +5615,55 @@
       </c>
       <c r="N39" s="3"/>
       <c r="O39" s="4">
-        <f>IF(ISBLANK($C39),0,IF($B39="C",1,0))</f>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="P39" s="29">
-        <f>IF(ISBLANK($C39),0,IF($B39="C",1,0))</f>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="Q39" s="29">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R39" s="29">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="S39" s="29">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="T39" s="11">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="R39" s="29">
+        <v>2</v>
+      </c>
+      <c r="U39" s="4">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="S39" s="29">
+        <v>5</v>
+      </c>
+      <c r="V39" s="29">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="T39" s="11">
+        <v>2</v>
+      </c>
+      <c r="W39" s="29">
         <f t="shared" si="16"/>
-        <v>2</v>
-      </c>
-      <c r="U39" s="4">
+        <v>0</v>
+      </c>
+      <c r="X39" s="31">
         <f t="shared" si="17"/>
+        <v>7</v>
+      </c>
+      <c r="Y39" s="34">
+        <f t="shared" si="18"/>
         <v>5</v>
       </c>
-      <c r="V39" s="29">
-        <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="W39" s="29">
+      <c r="Z39" s="34">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="X39" s="31">
-        <f t="shared" si="20"/>
-        <v>6</v>
-      </c>
-      <c r="Y39" s="34">
+      <c r="AA39" s="34">
         <f t="shared" si="21"/>
-        <v>5</v>
-      </c>
-      <c r="Z39" s="34">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AA39" s="34">
-        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -5852,10 +5673,10 @@
         <v>17</v>
       </c>
       <c r="C40" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="D40" s="26">
-        <v>7</v>
+        <v>60</v>
+      </c>
+      <c r="D40" s="25">
+        <v>32</v>
       </c>
       <c r="E40" s="29">
         <v>16</v>
@@ -5863,10 +5684,10 @@
       <c r="F40" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G40" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H40" s="6" t="s">
+      <c r="G40" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H40" s="7" t="s">
         <v>15</v>
       </c>
       <c r="I40" s="32" t="s">
@@ -5886,161 +5707,241 @@
       </c>
       <c r="N40" s="3"/>
       <c r="O40" s="4">
-        <f t="shared" si="23"/>
+        <f>IF(ISBLANK($C40),0,IF($B40="C",1,0))</f>
         <v>1</v>
       </c>
       <c r="P40" s="29">
-        <f t="shared" si="23"/>
+        <f>IF(ISBLANK($C40),0,IF($B40="C",1,0))</f>
         <v>1</v>
       </c>
       <c r="Q40" s="29">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R40" s="29">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="S40" s="29">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="T40" s="11">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="R40" s="29">
+        <v>2</v>
+      </c>
+      <c r="U40" s="4">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="S40" s="29">
+        <v>5</v>
+      </c>
+      <c r="V40" s="29">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="T40" s="11">
+        <v>32</v>
+      </c>
+      <c r="W40" s="29">
         <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="X40" s="31">
+        <f t="shared" si="17"/>
+        <v>37</v>
+      </c>
+      <c r="Y40" s="34">
+        <f t="shared" si="18"/>
+        <v>5</v>
+      </c>
+      <c r="Z40" s="34">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AA40" s="34">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A41" s="8"/>
+      <c r="B41" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="D41" s="26">
+        <v>8</v>
+      </c>
+      <c r="E41" s="29">
+        <v>16</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I41" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="J41" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="K41" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="L41" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="M41" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="N41" s="3"/>
+      <c r="O41" s="4">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="P41" s="29">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="Q41" s="29">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R41" s="29">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="S41" s="29">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="T41" s="11">
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
-      <c r="U40" s="4">
+      <c r="U41" s="4">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="V41" s="29">
+        <f t="shared" si="15"/>
+        <v>8</v>
+      </c>
+      <c r="W41" s="29">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="X41" s="31">
         <f t="shared" si="17"/>
+        <v>13</v>
+      </c>
+      <c r="Y41" s="34">
+        <f t="shared" si="18"/>
         <v>5</v>
       </c>
-      <c r="V40" s="29">
+      <c r="Z41" s="34">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AA41" s="34">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A42" s="8"/>
+      <c r="B42" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="D42" s="25">
+        <v>1</v>
+      </c>
+      <c r="E42" s="29">
+        <v>16</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I42" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="J42" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="K42" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="L42" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="M42" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="N42" s="3"/>
+      <c r="O42" s="4">
+        <f>IF(ISBLANK($C42),0,IF($B42="C",1,0))</f>
+        <v>1</v>
+      </c>
+      <c r="P42" s="29">
+        <f>IF(ISBLANK($C42),0,IF($B42="C",1,0))</f>
+        <v>1</v>
+      </c>
+      <c r="Q42" s="29">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R42" s="29">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="S42" s="29">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="T42" s="11">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="U42" s="4">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="V42" s="29">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="W42" s="29">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="X42" s="31">
+        <f t="shared" si="17"/>
+        <v>6</v>
+      </c>
+      <c r="Y42" s="34">
         <f t="shared" si="18"/>
-        <v>7</v>
-      </c>
-      <c r="W40" s="29">
+        <v>5</v>
+      </c>
+      <c r="Z42" s="34">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="X40" s="31">
-        <f t="shared" si="20"/>
-        <v>12</v>
-      </c>
-      <c r="Y40" s="34">
+      <c r="AA42" s="34">
         <f t="shared" si="21"/>
-        <v>5</v>
-      </c>
-      <c r="Z40" s="34">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AA40" s="34">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A41" s="159"/>
-      <c r="B41" s="160"/>
-      <c r="C41" s="161"/>
-      <c r="D41" s="162">
-        <f>SUM(D33:D40)</f>
-        <v>90</v>
-      </c>
-      <c r="E41" s="163"/>
-      <c r="F41" s="164"/>
-      <c r="G41" s="165"/>
-      <c r="H41" s="165"/>
-      <c r="I41" s="165"/>
-      <c r="J41" s="165"/>
-      <c r="K41" s="165"/>
-      <c r="L41" s="165"/>
-      <c r="M41" s="166"/>
-      <c r="N41" s="167"/>
-      <c r="O41" s="168"/>
-      <c r="P41" s="169"/>
-      <c r="Q41" s="167"/>
-      <c r="R41" s="167"/>
-      <c r="S41" s="167"/>
-      <c r="T41" s="170">
-        <f>SUM(T33:T40)</f>
-        <v>17</v>
-      </c>
-      <c r="U41" s="171">
-        <f>SUM(U33:U40)</f>
-        <v>40</v>
-      </c>
-      <c r="V41" s="172">
-        <f>SUM(V33:V40)</f>
-        <v>90</v>
-      </c>
-      <c r="W41" s="167">
-        <f>SUM(W33:W40)</f>
-        <v>2</v>
-      </c>
-      <c r="X41" s="173">
-        <f>SUM(X33:X40)</f>
-        <v>132</v>
-      </c>
-      <c r="Y41" s="174"/>
-      <c r="Z41" s="174"/>
-      <c r="AA41" s="174"/>
-    </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A42" s="100" t="s">
-        <v>55</v>
-      </c>
-      <c r="B42" s="77" t="s">
-        <v>20</v>
-      </c>
-      <c r="C42" s="90"/>
-      <c r="D42" s="90"/>
-      <c r="E42" s="91">
-        <v>128</v>
-      </c>
-      <c r="F42" s="80" t="s">
-        <v>16</v>
-      </c>
-      <c r="G42" s="81" t="s">
-        <v>19</v>
-      </c>
-      <c r="H42" s="82" t="s">
-        <v>18</v>
-      </c>
-      <c r="I42" s="83" t="s">
-        <v>66</v>
-      </c>
-      <c r="J42" s="84" t="s">
-        <v>67</v>
-      </c>
-      <c r="K42" s="85" t="s">
-        <v>68</v>
-      </c>
-      <c r="L42" s="84" t="s">
-        <v>69</v>
-      </c>
-      <c r="M42" s="84" t="s">
-        <v>70</v>
-      </c>
-      <c r="N42" s="102">
-        <f>IF(B42="S",1,"")</f>
-        <v>1</v>
-      </c>
-      <c r="O42" s="92"/>
-      <c r="P42" s="93"/>
-      <c r="Q42" s="93"/>
-      <c r="R42" s="93"/>
-      <c r="S42" s="93"/>
-      <c r="T42" s="94"/>
-      <c r="U42" s="92"/>
-      <c r="V42" s="93"/>
-      <c r="W42" s="93"/>
-      <c r="X42" s="93"/>
-      <c r="Y42" s="95">
-        <f>IF($E42=16,$N42*CharDeclAttrSize16,IF($E42=128,$N42*CharDeclAttrSize128,0))</f>
-        <v>19</v>
-      </c>
-      <c r="Z42" s="97"/>
-      <c r="AA42" s="96"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A43" s="8"/>
@@ -6048,286 +5949,206 @@
         <v>17</v>
       </c>
       <c r="C43" s="28" t="s">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="D43" s="26">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E43" s="29">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H43" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H43" s="6" t="s">
         <v>15</v>
       </c>
       <c r="I43" s="32" t="s">
         <v>15</v>
       </c>
       <c r="J43" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="K43" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="L43" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="M43" s="101" t="s">
+        <v>15</v>
+      </c>
+      <c r="K43" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="L43" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="M43" s="37" t="s">
         <v>15</v>
       </c>
       <c r="N43" s="3"/>
       <c r="O43" s="4">
-        <f>IF(ISBLANK($C43),0,IF($B43="C",1,0))</f>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="P43" s="29">
-        <f>IF(ISBLANK($C43),0,IF($B43="C",1,0))</f>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="Q43" s="29">
-        <f t="shared" ref="Q43:Q49" si="25">IF($B43="C",(IF(CONCATENATE($G43,$H43)="--", 0, 1)))</f>
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R43" s="29">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="S43" s="29">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="T43" s="11">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="U43" s="4">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="V43" s="29">
+        <f t="shared" si="15"/>
+        <v>7</v>
+      </c>
+      <c r="W43" s="29">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="X43" s="31">
+        <f t="shared" si="17"/>
+        <v>12</v>
+      </c>
+      <c r="Y43" s="34">
+        <f t="shared" si="18"/>
+        <v>5</v>
+      </c>
+      <c r="Z43" s="34">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AA43" s="34">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A44" s="159"/>
+      <c r="B44" s="160"/>
+      <c r="C44" s="161"/>
+      <c r="D44" s="162">
+        <f>SUM(D36:D43)</f>
+        <v>90</v>
+      </c>
+      <c r="E44" s="163"/>
+      <c r="F44" s="164"/>
+      <c r="G44" s="165"/>
+      <c r="H44" s="165"/>
+      <c r="I44" s="165"/>
+      <c r="J44" s="165"/>
+      <c r="K44" s="165"/>
+      <c r="L44" s="165"/>
+      <c r="M44" s="166"/>
+      <c r="N44" s="167"/>
+      <c r="O44" s="168"/>
+      <c r="P44" s="169"/>
+      <c r="Q44" s="167"/>
+      <c r="R44" s="167"/>
+      <c r="S44" s="167"/>
+      <c r="T44" s="170">
+        <f>SUM(T36:T43)</f>
+        <v>17</v>
+      </c>
+      <c r="U44" s="171">
+        <f>SUM(U36:U43)</f>
+        <v>40</v>
+      </c>
+      <c r="V44" s="172">
+        <f>SUM(V36:V43)</f>
+        <v>90</v>
+      </c>
+      <c r="W44" s="167">
+        <f>SUM(W36:W43)</f>
+        <v>2</v>
+      </c>
+      <c r="X44" s="173">
+        <f>SUM(X36:X43)</f>
+        <v>132</v>
+      </c>
+      <c r="Y44" s="174"/>
+      <c r="Z44" s="174"/>
+      <c r="AA44" s="174"/>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A45" s="100" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45" s="77" t="s">
+        <v>20</v>
+      </c>
+      <c r="C45" s="90"/>
+      <c r="D45" s="90"/>
+      <c r="E45" s="91">
+        <v>128</v>
+      </c>
+      <c r="F45" s="80" t="s">
+        <v>16</v>
+      </c>
+      <c r="G45" s="81" t="s">
+        <v>19</v>
+      </c>
+      <c r="H45" s="82" t="s">
+        <v>18</v>
+      </c>
+      <c r="I45" s="83" t="s">
+        <v>64</v>
+      </c>
+      <c r="J45" s="84" t="s">
+        <v>65</v>
+      </c>
+      <c r="K45" s="85" t="s">
+        <v>66</v>
+      </c>
+      <c r="L45" s="84" t="s">
+        <v>67</v>
+      </c>
+      <c r="M45" s="84" t="s">
+        <v>68</v>
+      </c>
+      <c r="N45" s="102">
+        <f>IF(B45="S",1,"")</f>
         <v>1</v>
       </c>
-      <c r="R43" s="29">
-        <f t="shared" ref="R43:R49" si="26">IF($B43="C",IF($F43="-",0,1))</f>
-        <v>0</v>
-      </c>
-      <c r="S43" s="29">
-        <f t="shared" ref="S43:S49" si="27">IF($B43="C",IF($M43="-",0,1))</f>
-        <v>0</v>
-      </c>
-      <c r="T43" s="11">
-        <f t="shared" ref="T43:T49" si="28">SUM(O43:S43)</f>
-        <v>3</v>
-      </c>
-      <c r="U43" s="4">
-        <f>IF($E43=16,$O43*CharDeclAttrSize16,IF($E43=128,$O43*CharDeclAttrSize128,0))</f>
+      <c r="O45" s="92"/>
+      <c r="P45" s="93"/>
+      <c r="Q45" s="93"/>
+      <c r="R45" s="93"/>
+      <c r="S45" s="93"/>
+      <c r="T45" s="94"/>
+      <c r="U45" s="92"/>
+      <c r="V45" s="93"/>
+      <c r="W45" s="93"/>
+      <c r="X45" s="93"/>
+      <c r="Y45" s="95">
+        <f>IF(ISBLANK($B45),0,IF($E45=16,$N45*CharDeclAttrSize16,IF($E45=128,$N45*CharDeclAttrSize128,0)))</f>
         <v>19</v>
       </c>
-      <c r="V43" s="29">
-        <f t="shared" ref="V43:V49" si="29">P43*D43</f>
-        <v>1</v>
-      </c>
-      <c r="W43" s="29">
-        <f t="shared" ref="W43:W49" si="30">IF($B43="C",(IF(CONCATENATE($G43,$H43)="--", 0, 2*LSM)+IF($F43="-", 0, 2)+IF($M43="-", 0, 2)))</f>
-        <v>2</v>
-      </c>
-      <c r="X43" s="31">
-        <f t="shared" ref="X43:X49" si="31">SUM(U43:W43)</f>
-        <v>22</v>
-      </c>
-      <c r="Y43" s="34">
-        <f t="shared" ref="Y43:Y49" si="32">SUM(U43+2*Q43)</f>
-        <v>21</v>
-      </c>
-      <c r="Z43" s="34">
-        <f t="shared" ref="Z43:Z49" si="33">3*Q43</f>
-        <v>3</v>
-      </c>
-      <c r="AA43" s="34">
-        <f>3*Q43</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A44" s="8"/>
-      <c r="B44" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C44" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="D44" s="25">
-        <v>2</v>
-      </c>
-      <c r="E44" s="29">
-        <v>128</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G44" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H44" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I44" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="J44" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="K44" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="L44" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="M44" s="101" t="s">
-        <v>15</v>
-      </c>
-      <c r="N44" s="3"/>
-      <c r="O44" s="4">
-        <f t="shared" ref="O44:P48" si="34">IF(ISBLANK($C44),0,IF($B44="C",1,0))</f>
-        <v>1</v>
-      </c>
-      <c r="P44" s="29">
-        <f t="shared" si="34"/>
-        <v>1</v>
-      </c>
-      <c r="Q44" s="29">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="R44" s="29">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="S44" s="29">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="T44" s="11">
-        <f t="shared" si="28"/>
-        <v>2</v>
-      </c>
-      <c r="U44" s="4">
-        <f t="shared" ref="U44:U49" si="35">IF($E44=16,$O44*CharDeclAttrSize16,IF($E44=128,$O44*CharDeclAttrSize128,0))</f>
-        <v>19</v>
-      </c>
-      <c r="V44" s="29">
-        <f t="shared" si="29"/>
-        <v>2</v>
-      </c>
-      <c r="W44" s="29">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="X44" s="31">
-        <f t="shared" si="31"/>
-        <v>21</v>
-      </c>
-      <c r="Y44" s="34">
-        <f t="shared" si="32"/>
-        <v>19</v>
-      </c>
-      <c r="Z44" s="34">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AA44" s="34">
-        <f t="shared" ref="AA44:AA49" si="36">3*Q44</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A45" s="8"/>
-      <c r="B45" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C45" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="D45" s="26">
-        <v>8</v>
-      </c>
-      <c r="E45" s="29">
-        <v>128</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H45" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I45" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="J45" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="K45" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="L45" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="M45" s="101" t="s">
-        <v>15</v>
-      </c>
-      <c r="N45" s="3"/>
-      <c r="O45" s="4">
-        <f>IF(ISBLANK($C45),0,IF($B45="C",1,0))</f>
-        <v>1</v>
-      </c>
-      <c r="P45" s="29">
-        <f>IF(ISBLANK($C45),0,IF($B45="C",1,0))</f>
-        <v>1</v>
-      </c>
-      <c r="Q45" s="29">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="R45" s="29">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="S45" s="29">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="T45" s="11">
-        <f t="shared" si="28"/>
-        <v>2</v>
-      </c>
-      <c r="U45" s="4">
-        <f t="shared" si="35"/>
-        <v>19</v>
-      </c>
-      <c r="V45" s="29">
-        <f t="shared" si="29"/>
-        <v>8</v>
-      </c>
-      <c r="W45" s="29">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="X45" s="31">
-        <f t="shared" si="31"/>
-        <v>27</v>
-      </c>
-      <c r="Y45" s="34">
-        <f t="shared" si="32"/>
-        <v>19</v>
-      </c>
-      <c r="Z45" s="34">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AA45" s="34">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
+      <c r="Z45" s="97"/>
+      <c r="AA45" s="96"/>
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
       <c r="B46" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C46" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="D46" s="25">
-        <v>4</v>
+      <c r="C46" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="D46" s="26">
+        <v>1</v>
       </c>
       <c r="E46" s="29">
         <v>128</v>
@@ -6338,17 +6159,17 @@
       <c r="G46" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H46" s="6" t="s">
+      <c r="H46" s="7" t="s">
         <v>15</v>
       </c>
       <c r="I46" s="32" t="s">
         <v>15</v>
       </c>
       <c r="J46" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="K46" s="37" t="s">
         <v>27</v>
+      </c>
+      <c r="K46" s="32" t="s">
+        <v>15</v>
       </c>
       <c r="L46" s="32" t="s">
         <v>15</v>
@@ -6358,55 +6179,55 @@
       </c>
       <c r="N46" s="3"/>
       <c r="O46" s="4">
-        <f t="shared" si="34"/>
+        <f>IF(ISBLANK($C46),0,IF($B46="C",1,0))</f>
         <v>1</v>
       </c>
       <c r="P46" s="29">
-        <f t="shared" si="34"/>
+        <f>IF(ISBLANK($C46),0,IF($B46="C",1,0))</f>
         <v>1</v>
       </c>
       <c r="Q46" s="29">
-        <f t="shared" si="25"/>
+        <f t="shared" ref="Q46:Q52" si="22">IF($B46="C",(IF(CONCATENATE($G46,$H46)="--", 0, 1)),0)</f>
         <v>1</v>
       </c>
       <c r="R46" s="29">
-        <f t="shared" si="26"/>
+        <f t="shared" ref="R46:S52" si="23">IF($B46="C",IF($F46="-",0,1),0)</f>
         <v>0</v>
       </c>
       <c r="S46" s="29">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="T46" s="11">
-        <f t="shared" si="28"/>
+        <f t="shared" ref="T46:T52" si="24">SUM(O46:S46)</f>
         <v>3</v>
       </c>
       <c r="U46" s="4">
-        <f t="shared" si="35"/>
+        <f>IF($E46=16,$O46*CharDeclAttrSize16,IF($E46=128,$O46*CharDeclAttrSize128,0))</f>
         <v>19</v>
       </c>
       <c r="V46" s="29">
-        <f t="shared" si="29"/>
-        <v>4</v>
+        <f t="shared" ref="V46:V52" si="25">P46*D46</f>
+        <v>1</v>
       </c>
       <c r="W46" s="29">
-        <f t="shared" si="30"/>
+        <f t="shared" ref="W46:W52" si="26">IF($B46="C",(IF(CONCATENATE($G46,$H46)="--", 0, 2*LSM)+IF($F46="-", 0, 2)+IF($M46="-", 0, 2)),0)</f>
         <v>2</v>
       </c>
       <c r="X46" s="31">
-        <f t="shared" si="31"/>
-        <v>25</v>
+        <f t="shared" ref="X46:X52" si="27">SUM(U46:W46)</f>
+        <v>22</v>
       </c>
       <c r="Y46" s="34">
-        <f t="shared" si="32"/>
+        <f t="shared" ref="Y46:Y52" si="28">SUM(U46+2*Q46)</f>
         <v>21</v>
       </c>
       <c r="Z46" s="34">
-        <f t="shared" si="33"/>
+        <f t="shared" ref="Z46:Z52" si="29">3*Q46</f>
         <v>3</v>
       </c>
       <c r="AA46" s="34">
-        <f t="shared" si="36"/>
+        <f>3*Q46</f>
         <v>3</v>
       </c>
     </row>
@@ -6415,11 +6236,11 @@
       <c r="B47" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C47" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="D47" s="26">
-        <v>4</v>
+      <c r="C47" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D47" s="25">
+        <v>2</v>
       </c>
       <c r="E47" s="29">
         <v>128</v>
@@ -6427,20 +6248,20 @@
       <c r="F47" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G47" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H47" s="7" t="s">
+      <c r="G47" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H47" s="6" t="s">
         <v>15</v>
       </c>
       <c r="I47" s="32" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="J47" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="K47" s="37" t="s">
-        <v>27</v>
+      <c r="K47" s="32" t="s">
+        <v>15</v>
       </c>
       <c r="L47" s="32" t="s">
         <v>15</v>
@@ -6450,55 +6271,55 @@
       </c>
       <c r="N47" s="3"/>
       <c r="O47" s="4">
-        <f>IF(ISBLANK($C47),0,IF($B47="C",1,0))</f>
+        <f t="shared" ref="O47:P51" si="30">IF(ISBLANK($C47),0,IF($B47="C",1,0))</f>
         <v>1</v>
       </c>
       <c r="P47" s="29">
-        <f>IF(ISBLANK($C47),0,IF($B47="C",1,0))</f>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="Q47" s="29">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="R47" s="29">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="S47" s="29">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="T47" s="11">
+        <f t="shared" si="24"/>
+        <v>2</v>
+      </c>
+      <c r="U47" s="4">
+        <f t="shared" ref="U47:U52" si="31">IF($E47=16,$O47*CharDeclAttrSize16,IF($E47=128,$O47*CharDeclAttrSize128,0))</f>
+        <v>19</v>
+      </c>
+      <c r="V47" s="29">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="R47" s="29">
+        <v>2</v>
+      </c>
+      <c r="W47" s="29">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="S47" s="29">
+      <c r="X47" s="31">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="T47" s="11">
+        <v>21</v>
+      </c>
+      <c r="Y47" s="34">
         <f t="shared" si="28"/>
-        <v>2</v>
-      </c>
-      <c r="U47" s="4">
-        <f t="shared" si="35"/>
         <v>19</v>
       </c>
-      <c r="V47" s="29">
+      <c r="Z47" s="34">
         <f t="shared" si="29"/>
-        <v>4</v>
-      </c>
-      <c r="W47" s="29">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="X47" s="31">
-        <f t="shared" si="31"/>
-        <v>23</v>
-      </c>
-      <c r="Y47" s="34">
-        <f t="shared" si="32"/>
-        <v>19</v>
-      </c>
-      <c r="Z47" s="34">
-        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AA47" s="34">
-        <f t="shared" si="36"/>
+        <f t="shared" ref="AA47:AA52" si="32">3*Q47</f>
         <v>0</v>
       </c>
     </row>
@@ -6507,11 +6328,11 @@
       <c r="B48" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="D48" s="25">
-        <v>4</v>
+      <c r="C48" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="D48" s="26">
+        <v>8</v>
       </c>
       <c r="E48" s="29">
         <v>128</v>
@@ -6519,20 +6340,20 @@
       <c r="F48" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G48" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H48" s="6" t="s">
+      <c r="G48" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H48" s="7" t="s">
         <v>15</v>
       </c>
       <c r="I48" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="J48" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="K48" s="37" t="s">
         <v>27</v>
-      </c>
-      <c r="J48" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="K48" s="37" t="s">
-        <v>15</v>
       </c>
       <c r="L48" s="32" t="s">
         <v>15</v>
@@ -6542,55 +6363,55 @@
       </c>
       <c r="N48" s="3"/>
       <c r="O48" s="4">
-        <f t="shared" si="34"/>
+        <f>IF(ISBLANK($C48),0,IF($B48="C",1,0))</f>
         <v>1</v>
       </c>
       <c r="P48" s="29">
-        <f t="shared" si="34"/>
+        <f>IF(ISBLANK($C48),0,IF($B48="C",1,0))</f>
         <v>1</v>
       </c>
       <c r="Q48" s="29">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="R48" s="29">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="S48" s="29">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="T48" s="11">
+        <f t="shared" si="24"/>
+        <v>2</v>
+      </c>
+      <c r="U48" s="4">
+        <f t="shared" si="31"/>
+        <v>19</v>
+      </c>
+      <c r="V48" s="29">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="R48" s="29">
+        <v>8</v>
+      </c>
+      <c r="W48" s="29">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="S48" s="29">
+      <c r="X48" s="31">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="T48" s="11">
+        <v>27</v>
+      </c>
+      <c r="Y48" s="34">
         <f t="shared" si="28"/>
-        <v>2</v>
-      </c>
-      <c r="U48" s="4">
-        <f t="shared" si="35"/>
         <v>19</v>
       </c>
-      <c r="V48" s="29">
+      <c r="Z48" s="34">
         <f t="shared" si="29"/>
-        <v>4</v>
-      </c>
-      <c r="W48" s="29">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="X48" s="31">
-        <f t="shared" si="31"/>
-        <v>23</v>
-      </c>
-      <c r="Y48" s="34">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="34">
         <f t="shared" si="32"/>
-        <v>19</v>
-      </c>
-      <c r="Z48" s="34">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AA48" s="34">
-        <f t="shared" si="36"/>
         <v>0</v>
       </c>
     </row>
@@ -6599,10 +6420,10 @@
       <c r="B49" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C49" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="D49" s="26">
+      <c r="C49" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="D49" s="25">
         <v>4</v>
       </c>
       <c r="E49" s="29">
@@ -6611,20 +6432,20 @@
       <c r="F49" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G49" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H49" s="7" t="s">
+      <c r="G49" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H49" s="6" t="s">
         <v>15</v>
       </c>
       <c r="I49" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="J49" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="K49" s="37" t="s">
         <v>27</v>
-      </c>
-      <c r="J49" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="K49" s="37" t="s">
-        <v>15</v>
       </c>
       <c r="L49" s="32" t="s">
         <v>15</v>
@@ -6634,161 +6455,241 @@
       </c>
       <c r="N49" s="3"/>
       <c r="O49" s="4">
-        <f>IF(ISBLANK($C49),0,IF($B49="C",1,0))</f>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="P49" s="29">
-        <f>IF(ISBLANK($C49),0,IF($B49="C",1,0))</f>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="Q49" s="29">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="R49" s="29">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="S49" s="29">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="T49" s="11">
+        <f t="shared" si="24"/>
+        <v>3</v>
+      </c>
+      <c r="U49" s="4">
+        <f t="shared" si="31"/>
+        <v>19</v>
+      </c>
+      <c r="V49" s="29">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="R49" s="29">
+        <v>4</v>
+      </c>
+      <c r="W49" s="29">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="S49" s="29">
+        <v>2</v>
+      </c>
+      <c r="X49" s="31">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="T49" s="11">
+        <v>25</v>
+      </c>
+      <c r="Y49" s="34">
         <f t="shared" si="28"/>
+        <v>21</v>
+      </c>
+      <c r="Z49" s="34">
+        <f t="shared" si="29"/>
+        <v>3</v>
+      </c>
+      <c r="AA49" s="34">
+        <f t="shared" si="32"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A50" s="8"/>
+      <c r="B50" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C50" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="D50" s="26">
+        <v>4</v>
+      </c>
+      <c r="E50" s="29">
+        <v>128</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I50" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="J50" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="K50" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="L50" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="M50" s="101" t="s">
+        <v>15</v>
+      </c>
+      <c r="N50" s="3"/>
+      <c r="O50" s="4">
+        <f>IF(ISBLANK($C50),0,IF($B50="C",1,0))</f>
+        <v>1</v>
+      </c>
+      <c r="P50" s="29">
+        <f>IF(ISBLANK($C50),0,IF($B50="C",1,0))</f>
+        <v>1</v>
+      </c>
+      <c r="Q50" s="29">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="R50" s="29">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="S50" s="29">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="T50" s="11">
+        <f t="shared" si="24"/>
         <v>2</v>
       </c>
-      <c r="U49" s="4">
-        <f t="shared" si="35"/>
+      <c r="U50" s="4">
+        <f t="shared" si="31"/>
         <v>19</v>
       </c>
-      <c r="V49" s="29">
+      <c r="V50" s="29">
+        <f t="shared" si="25"/>
+        <v>4</v>
+      </c>
+      <c r="W50" s="29">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="X50" s="31">
+        <f t="shared" si="27"/>
+        <v>23</v>
+      </c>
+      <c r="Y50" s="34">
+        <f t="shared" si="28"/>
+        <v>19</v>
+      </c>
+      <c r="Z50" s="34">
         <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AA50" s="34">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A51" s="8"/>
+      <c r="B51" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C51" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="D51" s="25">
         <v>4</v>
       </c>
-      <c r="W49" s="29">
+      <c r="E51" s="29">
+        <v>128</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I51" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="J51" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="K51" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="L51" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="M51" s="101" t="s">
+        <v>15</v>
+      </c>
+      <c r="N51" s="3"/>
+      <c r="O51" s="4">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="X49" s="31">
+        <v>1</v>
+      </c>
+      <c r="P51" s="29">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="Q51" s="29">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="R51" s="29">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="S51" s="29">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="T51" s="11">
+        <f t="shared" si="24"/>
+        <v>2</v>
+      </c>
+      <c r="U51" s="4">
         <f t="shared" si="31"/>
+        <v>19</v>
+      </c>
+      <c r="V51" s="29">
+        <f t="shared" si="25"/>
+        <v>4</v>
+      </c>
+      <c r="W51" s="29">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="X51" s="31">
+        <f t="shared" si="27"/>
         <v>23</v>
       </c>
-      <c r="Y49" s="34">
+      <c r="Y51" s="34">
+        <f t="shared" si="28"/>
+        <v>19</v>
+      </c>
+      <c r="Z51" s="34">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AA51" s="34">
         <f t="shared" si="32"/>
-        <v>19</v>
-      </c>
-      <c r="Z49" s="34">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AA49" s="34">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A50" s="159"/>
-      <c r="B50" s="160"/>
-      <c r="C50" s="161"/>
-      <c r="D50" s="162">
-        <f>SUM(D42:D49)</f>
-        <v>27</v>
-      </c>
-      <c r="E50" s="163"/>
-      <c r="F50" s="164"/>
-      <c r="G50" s="165"/>
-      <c r="H50" s="165"/>
-      <c r="I50" s="165"/>
-      <c r="J50" s="165"/>
-      <c r="K50" s="165"/>
-      <c r="L50" s="166"/>
-      <c r="M50" s="166"/>
-      <c r="N50" s="167"/>
-      <c r="O50" s="168"/>
-      <c r="P50" s="169"/>
-      <c r="Q50" s="167"/>
-      <c r="R50" s="167"/>
-      <c r="S50" s="167"/>
-      <c r="T50" s="170">
-        <f>SUM(T42:T49)</f>
-        <v>16</v>
-      </c>
-      <c r="U50" s="171">
-        <f>SUM(U42:U49)</f>
-        <v>133</v>
-      </c>
-      <c r="V50" s="172">
-        <f>SUM(V42:V49)</f>
-        <v>27</v>
-      </c>
-      <c r="W50" s="167">
-        <f>SUM(W42:W49)</f>
-        <v>4</v>
-      </c>
-      <c r="X50" s="173">
-        <f>SUM(X42:X49)</f>
-        <v>164</v>
-      </c>
-      <c r="Y50" s="174"/>
-      <c r="Z50" s="174"/>
-      <c r="AA50" s="174"/>
-    </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A51" s="100" t="s">
-        <v>56</v>
-      </c>
-      <c r="B51" s="77" t="s">
-        <v>20</v>
-      </c>
-      <c r="C51" s="90"/>
-      <c r="D51" s="90"/>
-      <c r="E51" s="91">
-        <v>128</v>
-      </c>
-      <c r="F51" s="80" t="s">
-        <v>16</v>
-      </c>
-      <c r="G51" s="81" t="s">
-        <v>19</v>
-      </c>
-      <c r="H51" s="82" t="s">
-        <v>18</v>
-      </c>
-      <c r="I51" s="83" t="s">
-        <v>66</v>
-      </c>
-      <c r="J51" s="84" t="s">
-        <v>67</v>
-      </c>
-      <c r="K51" s="85" t="s">
-        <v>68</v>
-      </c>
-      <c r="L51" s="84" t="s">
-        <v>69</v>
-      </c>
-      <c r="M51" s="84" t="s">
-        <v>70</v>
-      </c>
-      <c r="N51" s="102">
-        <f>IF(B51="S",1,"")</f>
-        <v>1</v>
-      </c>
-      <c r="O51" s="92"/>
-      <c r="P51" s="93"/>
-      <c r="Q51" s="93"/>
-      <c r="R51" s="93"/>
-      <c r="S51" s="93"/>
-      <c r="T51" s="94"/>
-      <c r="U51" s="92"/>
-      <c r="V51" s="93"/>
-      <c r="W51" s="93"/>
-      <c r="X51" s="93"/>
-      <c r="Y51" s="95">
-        <f>IF($E51=16,$N51*CharDeclAttrSize16,IF($E51=128,$N51*CharDeclAttrSize128,0))</f>
-        <v>19</v>
-      </c>
-      <c r="Z51" s="97"/>
-      <c r="AA51" s="96"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="52" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A52" s="8"/>
@@ -6796,10 +6697,10 @@
         <v>17</v>
       </c>
       <c r="C52" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="D52" s="25">
-        <v>2</v>
+        <v>62</v>
+      </c>
+      <c r="D52" s="26">
+        <v>4</v>
       </c>
       <c r="E52" s="29">
         <v>128</v>
@@ -6814,15 +6715,15 @@
         <v>15</v>
       </c>
       <c r="I52" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="J52" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K52" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="L52" s="6" t="s">
+      <c r="J52" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="K52" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="L52" s="32" t="s">
         <v>15</v>
       </c>
       <c r="M52" s="101" t="s">
@@ -6838,244 +6739,164 @@
         <v>1</v>
       </c>
       <c r="Q52" s="29">
-        <f t="shared" ref="Q52:Q56" si="37">IF($B52="C",(IF(CONCATENATE($G52,$H52)="--", 0, 1)))</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="R52" s="29">
-        <f t="shared" ref="R52:R56" si="38">IF($B52="C",IF($F52="-",0,1))</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="S52" s="29">
-        <f t="shared" ref="S52:S56" si="39">IF($B52="C",IF($M52="-",0,1))</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="T52" s="11">
-        <f t="shared" ref="T52:T56" si="40">SUM(O52:S52)</f>
+        <f t="shared" si="24"/>
         <v>2</v>
       </c>
       <c r="U52" s="4">
-        <f>IF($E52=16,$O52*CharDeclAttrSize16,IF($E52=128,$O52*CharDeclAttrSize128,0))</f>
+        <f t="shared" si="31"/>
         <v>19</v>
       </c>
       <c r="V52" s="29">
-        <f>P52*D52</f>
-        <v>2</v>
+        <f t="shared" si="25"/>
+        <v>4</v>
       </c>
       <c r="W52" s="29">
-        <f>IF($B52="C",(IF(CONCATENATE($G52,$H52)="--", 0, 2*LSM)+IF($F52="-", 0, 2)+IF($M52="-", 0, 2)))</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="X52" s="31">
-        <f>SUM(U52:W52)</f>
-        <v>21</v>
+        <f t="shared" si="27"/>
+        <v>23</v>
       </c>
       <c r="Y52" s="34">
-        <f>SUM(U52+2*Q52)</f>
+        <f t="shared" si="28"/>
         <v>19</v>
       </c>
       <c r="Z52" s="34">
-        <f t="shared" ref="Z52:Z56" si="41">3*Q52</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AA52" s="34">
-        <f>3*Q52</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A53" s="8"/>
-      <c r="B53" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C53" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="D53" s="26">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A53" s="159"/>
+      <c r="B53" s="160"/>
+      <c r="C53" s="161"/>
+      <c r="D53" s="162">
+        <f>SUM(D45:D52)</f>
+        <v>27</v>
+      </c>
+      <c r="E53" s="163"/>
+      <c r="F53" s="164"/>
+      <c r="G53" s="165"/>
+      <c r="H53" s="165"/>
+      <c r="I53" s="165"/>
+      <c r="J53" s="165"/>
+      <c r="K53" s="165"/>
+      <c r="L53" s="166"/>
+      <c r="M53" s="166"/>
+      <c r="N53" s="167"/>
+      <c r="O53" s="168"/>
+      <c r="P53" s="169"/>
+      <c r="Q53" s="167"/>
+      <c r="R53" s="167"/>
+      <c r="S53" s="167"/>
+      <c r="T53" s="170">
+        <f>SUM(T45:T52)</f>
+        <v>16</v>
+      </c>
+      <c r="U53" s="171">
+        <f>SUM(U45:U52)</f>
+        <v>133</v>
+      </c>
+      <c r="V53" s="172">
+        <f>SUM(V45:V52)</f>
+        <v>27</v>
+      </c>
+      <c r="W53" s="167">
+        <f>SUM(W45:W52)</f>
         <v>4</v>
       </c>
-      <c r="E53" s="29">
+      <c r="X53" s="173">
+        <f>SUM(X45:X52)</f>
+        <v>164</v>
+      </c>
+      <c r="Y53" s="174"/>
+      <c r="Z53" s="174"/>
+      <c r="AA53" s="174"/>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A54" s="100" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54" s="77" t="s">
+        <v>20</v>
+      </c>
+      <c r="C54" s="90"/>
+      <c r="D54" s="90"/>
+      <c r="E54" s="91">
         <v>128</v>
       </c>
-      <c r="F53" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G53" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H53" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I53" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="J53" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K53" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="L53" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="M53" s="101" t="s">
-        <v>15</v>
-      </c>
-      <c r="N53" s="3"/>
-      <c r="O53" s="4">
-        <f t="shared" ref="O53:P55" si="42">IF(ISBLANK($C53),0,IF($B53="C",1,0))</f>
+      <c r="F54" s="80" t="s">
+        <v>16</v>
+      </c>
+      <c r="G54" s="81" t="s">
+        <v>19</v>
+      </c>
+      <c r="H54" s="82" t="s">
+        <v>18</v>
+      </c>
+      <c r="I54" s="83" t="s">
+        <v>64</v>
+      </c>
+      <c r="J54" s="84" t="s">
+        <v>65</v>
+      </c>
+      <c r="K54" s="85" t="s">
+        <v>66</v>
+      </c>
+      <c r="L54" s="84" t="s">
+        <v>67</v>
+      </c>
+      <c r="M54" s="84" t="s">
+        <v>68</v>
+      </c>
+      <c r="N54" s="102">
+        <f>IF(B54="S",1,"")</f>
         <v>1</v>
       </c>
-      <c r="P53" s="29">
-        <f t="shared" si="42"/>
-        <v>1</v>
-      </c>
-      <c r="Q53" s="29">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="R53" s="29">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="S53" s="29">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="T53" s="11">
-        <f t="shared" si="40"/>
-        <v>2</v>
-      </c>
-      <c r="U53" s="4">
-        <f>IF($E53=16,$O53*CharDeclAttrSize16,IF($E53=128,$O53*CharDeclAttrSize128,0))</f>
+      <c r="O54" s="92"/>
+      <c r="P54" s="93"/>
+      <c r="Q54" s="93"/>
+      <c r="R54" s="93"/>
+      <c r="S54" s="93"/>
+      <c r="T54" s="94"/>
+      <c r="U54" s="92"/>
+      <c r="V54" s="93"/>
+      <c r="W54" s="93"/>
+      <c r="X54" s="93"/>
+      <c r="Y54" s="95">
+        <f>IF(ISBLANK($B54),0,IF($E54=16,$N54*CharDeclAttrSize16,IF($E54=128,$N54*CharDeclAttrSize128,0)))</f>
         <v>19</v>
       </c>
-      <c r="V53" s="29">
-        <f>P53*D53</f>
-        <v>4</v>
-      </c>
-      <c r="W53" s="29">
-        <f>IF($B53="C",(IF(CONCATENATE($G53,$H53)="--", 0, 2*LSM)+IF($F53="-", 0, 2)+IF($M53="-", 0, 2)))</f>
-        <v>0</v>
-      </c>
-      <c r="X53" s="31">
-        <f>SUM(U53:W53)</f>
-        <v>23</v>
-      </c>
-      <c r="Y53" s="34">
-        <f>SUM(U53+2*Q53)</f>
-        <v>19</v>
-      </c>
-      <c r="Z53" s="34">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="AA53" s="34">
-        <f t="shared" ref="AA53:AA56" si="43">3*Q53</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A54" s="8"/>
-      <c r="B54" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C54" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="D54" s="25">
-        <v>3</v>
-      </c>
-      <c r="E54" s="29">
-        <v>128</v>
-      </c>
-      <c r="F54" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G54" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H54" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I54" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="J54" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K54" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="L54" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="M54" s="101" t="s">
-        <v>15</v>
-      </c>
-      <c r="N54" s="3"/>
-      <c r="O54" s="4">
-        <f>IF(ISBLANK($C54),0,IF($B54="C",1,0))</f>
-        <v>1</v>
-      </c>
-      <c r="P54" s="29">
-        <f>IF(ISBLANK($C54),0,IF($B54="C",1,0))</f>
-        <v>1</v>
-      </c>
-      <c r="Q54" s="29">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="R54" s="29">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="S54" s="29">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="T54" s="11">
-        <f t="shared" si="40"/>
-        <v>2</v>
-      </c>
-      <c r="U54" s="4">
-        <f>IF($E54=16,$O54*CharDeclAttrSize16,IF($E54=128,$O54*CharDeclAttrSize128,0))</f>
-        <v>19</v>
-      </c>
-      <c r="V54" s="29">
-        <f>P54*D54</f>
-        <v>3</v>
-      </c>
-      <c r="W54" s="29">
-        <f>IF($B54="C",(IF(CONCATENATE($G54,$H54)="--", 0, 2*LSM)+IF($F54="-", 0, 2)+IF($M54="-", 0, 2)))</f>
-        <v>0</v>
-      </c>
-      <c r="X54" s="31">
-        <f>SUM(U54:W54)</f>
-        <v>22</v>
-      </c>
-      <c r="Y54" s="34">
-        <f>SUM(U54+2*Q54)</f>
-        <v>19</v>
-      </c>
-      <c r="Z54" s="34">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="AA54" s="34">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
+      <c r="Z54" s="97"/>
+      <c r="AA54" s="96"/>
     </row>
     <row r="55" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A55" s="8"/>
       <c r="B55" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C55" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="D55" s="26">
-        <v>3</v>
+      <c r="C55" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="D55" s="25">
+        <v>2</v>
       </c>
       <c r="E55" s="29">
         <v>128</v>
@@ -7083,10 +6904,10 @@
       <c r="F55" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G55" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H55" s="6" t="s">
+      <c r="G55" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H55" s="7" t="s">
         <v>15</v>
       </c>
       <c r="I55" s="32" t="s">
@@ -7106,27 +6927,27 @@
       </c>
       <c r="N55" s="3"/>
       <c r="O55" s="4">
-        <f t="shared" si="42"/>
+        <f>IF(ISBLANK($C55),0,IF($B55="C",1,0))</f>
         <v>1</v>
       </c>
       <c r="P55" s="29">
-        <f t="shared" si="42"/>
+        <f>IF(ISBLANK($C55),0,IF($B55="C",1,0))</f>
         <v>1</v>
       </c>
       <c r="Q55" s="29">
-        <f t="shared" si="37"/>
+        <f t="shared" ref="Q55:Q59" si="33">IF($B55="C",(IF(CONCATENATE($G55,$H55)="--", 0, 1)),0)</f>
         <v>0</v>
       </c>
       <c r="R55" s="29">
-        <f t="shared" si="38"/>
+        <f t="shared" ref="R55:S59" si="34">IF($B55="C",IF($F55="-",0,1),0)</f>
         <v>0</v>
       </c>
       <c r="S55" s="29">
-        <f t="shared" si="39"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="T55" s="11">
-        <f t="shared" si="40"/>
+        <f t="shared" ref="T55:T59" si="35">SUM(O55:S55)</f>
         <v>2</v>
       </c>
       <c r="U55" s="4">
@@ -7135,26 +6956,26 @@
       </c>
       <c r="V55" s="29">
         <f>P55*D55</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W55" s="29">
-        <f>IF($B55="C",(IF(CONCATENATE($G55,$H55)="--", 0, 2*LSM)+IF($F55="-", 0, 2)+IF($M55="-", 0, 2)))</f>
+        <f>IF($B55="C",(IF(CONCATENATE($G55,$H55)="--", 0, 2*LSM)+IF($F55="-", 0, 2)+IF($M55="-", 0, 2)),0)</f>
         <v>0</v>
       </c>
       <c r="X55" s="31">
         <f>SUM(U55:W55)</f>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y55" s="34">
         <f>SUM(U55+2*Q55)</f>
         <v>19</v>
       </c>
       <c r="Z55" s="34">
-        <f t="shared" si="41"/>
+        <f t="shared" ref="Z55:Z59" si="36">3*Q55</f>
         <v>0</v>
       </c>
       <c r="AA55" s="34">
-        <f t="shared" si="43"/>
+        <f>3*Q55</f>
         <v>0</v>
       </c>
     </row>
@@ -7163,11 +6984,11 @@
       <c r="B56" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C56" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="D56" s="25">
-        <v>3</v>
+      <c r="C56" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D56" s="26">
+        <v>4</v>
       </c>
       <c r="E56" s="29">
         <v>128</v>
@@ -7175,10 +6996,10 @@
       <c r="F56" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G56" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H56" s="7" t="s">
+      <c r="G56" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H56" s="6" t="s">
         <v>15</v>
       </c>
       <c r="I56" s="32" t="s">
@@ -7188,7 +7009,7 @@
         <v>15</v>
       </c>
       <c r="K56" s="6" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="L56" s="6" t="s">
         <v>15</v>
@@ -7198,27 +7019,27 @@
       </c>
       <c r="N56" s="3"/>
       <c r="O56" s="4">
-        <f>IF(ISBLANK($C56),0,IF($B56="C",1,0))</f>
+        <f t="shared" ref="O56:P58" si="37">IF(ISBLANK($C56),0,IF($B56="C",1,0))</f>
         <v>1</v>
       </c>
       <c r="P56" s="29">
-        <f>IF(ISBLANK($C56),0,IF($B56="C",1,0))</f>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="Q56" s="29">
-        <f t="shared" si="37"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="R56" s="29">
-        <f t="shared" si="38"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="S56" s="29">
-        <f t="shared" si="39"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="T56" s="11">
-        <f t="shared" si="40"/>
+        <f t="shared" si="35"/>
         <v>2</v>
       </c>
       <c r="U56" s="4">
@@ -7227,132 +7048,212 @@
       </c>
       <c r="V56" s="29">
         <f>P56*D56</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W56" s="29">
-        <f>IF($B56="C",(IF(CONCATENATE($G56,$H56)="--", 0, 2*LSM)+IF($F56="-", 0, 2)+IF($M56="-", 0, 2)))</f>
+        <f>IF($B56="C",(IF(CONCATENATE($G56,$H56)="--", 0, 2*LSM)+IF($F56="-", 0, 2)+IF($M56="-", 0, 2)),0)</f>
         <v>0</v>
       </c>
       <c r="X56" s="31">
         <f>SUM(U56:W56)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y56" s="34">
         <f>SUM(U56+2*Q56)</f>
         <v>19</v>
       </c>
       <c r="Z56" s="34">
-        <f t="shared" si="41"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="AA56" s="34">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A57" s="159"/>
-      <c r="B57" s="160"/>
-      <c r="C57" s="161"/>
-      <c r="D57" s="162">
-        <f>SUM(D52:D56)</f>
-        <v>15</v>
-      </c>
-      <c r="E57" s="163"/>
-      <c r="F57" s="164"/>
-      <c r="G57" s="165"/>
-      <c r="H57" s="165"/>
-      <c r="I57" s="165"/>
-      <c r="J57" s="165"/>
-      <c r="K57" s="165"/>
-      <c r="L57" s="165"/>
-      <c r="M57" s="166"/>
-      <c r="N57" s="167"/>
-      <c r="O57" s="168"/>
-      <c r="P57" s="169"/>
-      <c r="Q57" s="167"/>
-      <c r="R57" s="167"/>
-      <c r="S57" s="167"/>
-      <c r="T57" s="170">
-        <f>SUM(T52:T56)</f>
-        <v>10</v>
-      </c>
-      <c r="U57" s="171">
-        <f>SUM(U52:U56)</f>
-        <v>95</v>
-      </c>
-      <c r="V57" s="172">
-        <f>SUM(V52:V56)</f>
-        <v>15</v>
-      </c>
-      <c r="W57" s="167">
-        <f>SUM(W52:W56)</f>
-        <v>0</v>
-      </c>
-      <c r="X57" s="173">
-        <f>SUM(X52:X56)</f>
-        <v>110</v>
-      </c>
-      <c r="Y57" s="174"/>
-      <c r="Z57" s="174"/>
-      <c r="AA57" s="174"/>
+        <f t="shared" ref="AA56:AA59" si="38">3*Q56</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A57" s="8"/>
+      <c r="B57" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C57" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="D57" s="25">
+        <v>3</v>
+      </c>
+      <c r="E57" s="29">
+        <v>128</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I57" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="J57" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K57" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L57" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M57" s="101" t="s">
+        <v>15</v>
+      </c>
+      <c r="N57" s="3"/>
+      <c r="O57" s="4">
+        <f>IF(ISBLANK($C57),0,IF($B57="C",1,0))</f>
+        <v>1</v>
+      </c>
+      <c r="P57" s="29">
+        <f>IF(ISBLANK($C57),0,IF($B57="C",1,0))</f>
+        <v>1</v>
+      </c>
+      <c r="Q57" s="29">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="R57" s="29">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="S57" s="29">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="T57" s="11">
+        <f t="shared" si="35"/>
+        <v>2</v>
+      </c>
+      <c r="U57" s="4">
+        <f>IF($E57=16,$O57*CharDeclAttrSize16,IF($E57=128,$O57*CharDeclAttrSize128,0))</f>
+        <v>19</v>
+      </c>
+      <c r="V57" s="29">
+        <f>P57*D57</f>
+        <v>3</v>
+      </c>
+      <c r="W57" s="29">
+        <f>IF($B57="C",(IF(CONCATENATE($G57,$H57)="--", 0, 2*LSM)+IF($F57="-", 0, 2)+IF($M57="-", 0, 2)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="X57" s="31">
+        <f>SUM(U57:W57)</f>
+        <v>22</v>
+      </c>
+      <c r="Y57" s="34">
+        <f>SUM(U57+2*Q57)</f>
+        <v>19</v>
+      </c>
+      <c r="Z57" s="34">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="AA57" s="34">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="58" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A58" s="100" t="s">
-        <v>57</v>
-      </c>
-      <c r="B58" s="77" t="s">
-        <v>20</v>
-      </c>
-      <c r="C58" s="90"/>
-      <c r="D58" s="90"/>
-      <c r="E58" s="91">
+      <c r="A58" s="8"/>
+      <c r="B58" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C58" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="D58" s="26">
+        <v>3</v>
+      </c>
+      <c r="E58" s="29">
         <v>128</v>
       </c>
-      <c r="F58" s="80" t="s">
-        <v>16</v>
-      </c>
-      <c r="G58" s="81" t="s">
+      <c r="F58" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H58" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I58" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="J58" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K58" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L58" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M58" s="101" t="s">
+        <v>15</v>
+      </c>
+      <c r="N58" s="3"/>
+      <c r="O58" s="4">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
+      <c r="P58" s="29">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
+      <c r="Q58" s="29">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="R58" s="29">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="S58" s="29">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="T58" s="11">
+        <f t="shared" si="35"/>
+        <v>2</v>
+      </c>
+      <c r="U58" s="4">
+        <f>IF($E58=16,$O58*CharDeclAttrSize16,IF($E58=128,$O58*CharDeclAttrSize128,0))</f>
         <v>19</v>
       </c>
-      <c r="H58" s="82" t="s">
-        <v>18</v>
-      </c>
-      <c r="I58" s="83" t="s">
-        <v>66</v>
-      </c>
-      <c r="J58" s="84" t="s">
-        <v>67</v>
-      </c>
-      <c r="K58" s="85" t="s">
-        <v>68</v>
-      </c>
-      <c r="L58" s="84" t="s">
-        <v>69</v>
-      </c>
-      <c r="M58" s="84" t="s">
-        <v>70</v>
-      </c>
-      <c r="N58" s="102">
-        <f>IF(B58="S",1,"")</f>
-        <v>1</v>
-      </c>
-      <c r="O58" s="92"/>
-      <c r="P58" s="93"/>
-      <c r="Q58" s="93"/>
-      <c r="R58" s="93"/>
-      <c r="S58" s="93"/>
-      <c r="T58" s="94"/>
-      <c r="U58" s="92"/>
-      <c r="V58" s="93"/>
-      <c r="W58" s="93"/>
-      <c r="X58" s="93"/>
-      <c r="Y58" s="95">
-        <f>IF($E58=16,$N58*CharDeclAttrSize16,IF($E58=128,$N58*CharDeclAttrSize128,0))</f>
+      <c r="V58" s="29">
+        <f>P58*D58</f>
+        <v>3</v>
+      </c>
+      <c r="W58" s="29">
+        <f>IF($B58="C",(IF(CONCATENATE($G58,$H58)="--", 0, 2*LSM)+IF($F58="-", 0, 2)+IF($M58="-", 0, 2)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="X58" s="31">
+        <f>SUM(U58:W58)</f>
+        <v>22</v>
+      </c>
+      <c r="Y58" s="34">
+        <f>SUM(U58+2*Q58)</f>
         <v>19</v>
       </c>
-      <c r="Z58" s="97"/>
-      <c r="AA58" s="96"/>
+      <c r="Z58" s="34">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="AA58" s="34">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="59" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A59" s="8"/>
@@ -7360,10 +7261,10 @@
         <v>17</v>
       </c>
       <c r="C59" s="28" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D59" s="25">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E59" s="29">
         <v>128</v>
@@ -7381,7 +7282,7 @@
         <v>15</v>
       </c>
       <c r="J59" s="6" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="K59" s="6" t="s">
         <v>15</v>
@@ -7402,19 +7303,19 @@
         <v>1</v>
       </c>
       <c r="Q59" s="29">
-        <f t="shared" ref="Q59:Q63" si="44">IF($B59="C",(IF(CONCATENATE($G59,$H59)="--", 0, 1)))</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="R59" s="29">
-        <f t="shared" ref="R59:R63" si="45">IF($B59="C",IF($F59="-",0,1))</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="S59" s="29">
-        <f t="shared" ref="S59:S63" si="46">IF($B59="C",IF($M59="-",0,1))</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="T59" s="11">
-        <f t="shared" ref="T59:T63" si="47">SUM(O59:S59)</f>
+        <f t="shared" si="35"/>
         <v>2</v>
       </c>
       <c r="U59" s="4">
@@ -7423,223 +7324,143 @@
       </c>
       <c r="V59" s="29">
         <f>P59*D59</f>
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="W59" s="29">
-        <f>IF($B59="C",(IF(CONCATENATE($G59,$H59)="--", 0, 2*LSM)+IF($F59="-", 0, 2)+IF($M59="-", 0, 2)))</f>
+        <f>IF($B59="C",(IF(CONCATENATE($G59,$H59)="--", 0, 2*LSM)+IF($F59="-", 0, 2)+IF($M59="-", 0, 2)),0)</f>
         <v>0</v>
       </c>
       <c r="X59" s="31">
         <f>SUM(U59:W59)</f>
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="Y59" s="34">
         <f>SUM(U59+2*Q59)</f>
         <v>19</v>
       </c>
       <c r="Z59" s="34">
-        <f t="shared" ref="Z59:Z63" si="48">3*Q59</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="AA59" s="34">
-        <f>3*Q59</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A60" s="8"/>
-      <c r="B60" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C60" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="D60" s="26">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A60" s="159"/>
+      <c r="B60" s="160"/>
+      <c r="C60" s="161"/>
+      <c r="D60" s="162">
+        <f>SUM(D55:D59)</f>
+        <v>15</v>
+      </c>
+      <c r="E60" s="163"/>
+      <c r="F60" s="164"/>
+      <c r="G60" s="165"/>
+      <c r="H60" s="165"/>
+      <c r="I60" s="165"/>
+      <c r="J60" s="165"/>
+      <c r="K60" s="165"/>
+      <c r="L60" s="165"/>
+      <c r="M60" s="166"/>
+      <c r="N60" s="167"/>
+      <c r="O60" s="168"/>
+      <c r="P60" s="169"/>
+      <c r="Q60" s="167"/>
+      <c r="R60" s="167"/>
+      <c r="S60" s="167"/>
+      <c r="T60" s="170">
+        <f>SUM(T55:T59)</f>
+        <v>10</v>
+      </c>
+      <c r="U60" s="171">
+        <f>SUM(U55:U59)</f>
+        <v>95</v>
+      </c>
+      <c r="V60" s="172">
+        <f>SUM(V55:V59)</f>
+        <v>15</v>
+      </c>
+      <c r="W60" s="167">
+        <f>SUM(W55:W59)</f>
+        <v>0</v>
+      </c>
+      <c r="X60" s="173">
+        <f>SUM(X55:X59)</f>
+        <v>110</v>
+      </c>
+      <c r="Y60" s="174"/>
+      <c r="Z60" s="174"/>
+      <c r="AA60" s="174"/>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A61" s="100" t="s">
+        <v>55</v>
+      </c>
+      <c r="B61" s="77" t="s">
+        <v>20</v>
+      </c>
+      <c r="C61" s="90"/>
+      <c r="D61" s="90"/>
+      <c r="E61" s="91">
+        <v>128</v>
+      </c>
+      <c r="F61" s="80" t="s">
+        <v>16</v>
+      </c>
+      <c r="G61" s="81" t="s">
+        <v>19</v>
+      </c>
+      <c r="H61" s="82" t="s">
+        <v>18</v>
+      </c>
+      <c r="I61" s="83" t="s">
+        <v>64</v>
+      </c>
+      <c r="J61" s="84" t="s">
+        <v>65</v>
+      </c>
+      <c r="K61" s="85" t="s">
+        <v>66</v>
+      </c>
+      <c r="L61" s="84" t="s">
+        <v>67</v>
+      </c>
+      <c r="M61" s="84" t="s">
+        <v>68</v>
+      </c>
+      <c r="N61" s="102">
+        <f>IF(B61="S",1,"")</f>
         <v>1</v>
       </c>
-      <c r="E60" s="29">
-        <v>128</v>
-      </c>
-      <c r="F60" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G60" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H60" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I60" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="J60" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K60" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="L60" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="M60" s="101" t="s">
-        <v>15</v>
-      </c>
-      <c r="N60" s="3"/>
-      <c r="O60" s="4">
-        <f t="shared" ref="O60:P62" si="49">IF(ISBLANK($C60),0,IF($B60="C",1,0))</f>
-        <v>1</v>
-      </c>
-      <c r="P60" s="29">
-        <f t="shared" si="49"/>
-        <v>1</v>
-      </c>
-      <c r="Q60" s="29">
-        <f t="shared" si="44"/>
-        <v>1</v>
-      </c>
-      <c r="R60" s="29">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="S60" s="29">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="T60" s="11">
-        <f t="shared" si="47"/>
-        <v>3</v>
-      </c>
-      <c r="U60" s="4">
-        <f>IF($E60=16,$O60*CharDeclAttrSize16,IF($E60=128,$O60*CharDeclAttrSize128,0))</f>
+      <c r="O61" s="92"/>
+      <c r="P61" s="93"/>
+      <c r="Q61" s="93"/>
+      <c r="R61" s="93"/>
+      <c r="S61" s="93"/>
+      <c r="T61" s="94"/>
+      <c r="U61" s="92"/>
+      <c r="V61" s="93"/>
+      <c r="W61" s="93"/>
+      <c r="X61" s="93"/>
+      <c r="Y61" s="95">
+        <f>IF(ISBLANK($B61),0,IF($E61=16,$N61*CharDeclAttrSize16,IF($E61=128,$N61*CharDeclAttrSize128,0)))</f>
         <v>19</v>
       </c>
-      <c r="V60" s="29">
-        <f>P60*D60</f>
-        <v>1</v>
-      </c>
-      <c r="W60" s="29">
-        <f>IF($B60="C",(IF(CONCATENATE($G60,$H60)="--", 0, 2*LSM)+IF($F60="-", 0, 2)+IF($M60="-", 0, 2)))</f>
-        <v>2</v>
-      </c>
-      <c r="X60" s="31">
-        <f>SUM(U60:W60)</f>
-        <v>22</v>
-      </c>
-      <c r="Y60" s="34">
-        <f>SUM(U60+2*Q60)</f>
-        <v>21</v>
-      </c>
-      <c r="Z60" s="34">
-        <f t="shared" si="48"/>
-        <v>3</v>
-      </c>
-      <c r="AA60" s="34">
-        <f t="shared" ref="AA60:AA63" si="50">3*Q60</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A61" s="8"/>
-      <c r="B61" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C61" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="D61" s="25">
-        <v>20</v>
-      </c>
-      <c r="E61" s="29">
-        <v>128</v>
-      </c>
-      <c r="F61" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G61" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H61" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I61" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="J61" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K61" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="L61" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="M61" s="101" t="s">
-        <v>15</v>
-      </c>
-      <c r="N61" s="3"/>
-      <c r="O61" s="4">
-        <f>IF(ISBLANK($C61),0,IF($B61="C",1,0))</f>
-        <v>1</v>
-      </c>
-      <c r="P61" s="29">
-        <f>IF(ISBLANK($C61),0,IF($B61="C",1,0))</f>
-        <v>1</v>
-      </c>
-      <c r="Q61" s="29">
-        <f t="shared" si="44"/>
-        <v>1</v>
-      </c>
-      <c r="R61" s="29">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="S61" s="29">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="T61" s="11">
-        <f t="shared" si="47"/>
-        <v>3</v>
-      </c>
-      <c r="U61" s="4">
-        <f>IF($E61=16,$O61*CharDeclAttrSize16,IF($E61=128,$O61*CharDeclAttrSize128,0))</f>
-        <v>19</v>
-      </c>
-      <c r="V61" s="29">
-        <f>P61*D61</f>
-        <v>20</v>
-      </c>
-      <c r="W61" s="29">
-        <f>IF($B61="C",(IF(CONCATENATE($G61,$H61)="--", 0, 2*LSM)+IF($F61="-", 0, 2)+IF($M61="-", 0, 2)))</f>
-        <v>2</v>
-      </c>
-      <c r="X61" s="31">
-        <f>SUM(U61:W61)</f>
-        <v>41</v>
-      </c>
-      <c r="Y61" s="34">
-        <f>SUM(U61+2*Q61)</f>
-        <v>21</v>
-      </c>
-      <c r="Z61" s="34">
-        <f t="shared" si="48"/>
-        <v>3</v>
-      </c>
-      <c r="AA61" s="34">
-        <f t="shared" si="50"/>
-        <v>3</v>
-      </c>
+      <c r="Z61" s="97"/>
+      <c r="AA61" s="96"/>
     </row>
     <row r="62" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A62" s="8"/>
       <c r="B62" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C62" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="D62" s="26">
-        <v>1</v>
+      <c r="C62" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="D62" s="25">
+        <v>20</v>
       </c>
       <c r="E62" s="29">
         <v>128</v>
@@ -7647,10 +7468,10 @@
       <c r="F62" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G62" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H62" s="6" t="s">
+      <c r="G62" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H62" s="7" t="s">
         <v>15</v>
       </c>
       <c r="I62" s="32" t="s">
@@ -7670,28 +7491,28 @@
       </c>
       <c r="N62" s="3"/>
       <c r="O62" s="4">
-        <f t="shared" si="49"/>
+        <f>IF(ISBLANK($C62),0,IF($B62="C",1,0))</f>
         <v>1</v>
       </c>
       <c r="P62" s="29">
-        <f t="shared" si="49"/>
+        <f>IF(ISBLANK($C62),0,IF($B62="C",1,0))</f>
         <v>1</v>
       </c>
       <c r="Q62" s="29">
-        <f t="shared" si="44"/>
-        <v>1</v>
+        <f t="shared" ref="Q62:Q66" si="39">IF($B62="C",(IF(CONCATENATE($G62,$H62)="--", 0, 1)),0)</f>
+        <v>0</v>
       </c>
       <c r="R62" s="29">
-        <f t="shared" si="45"/>
+        <f t="shared" ref="R62:S66" si="40">IF($B62="C",IF($F62="-",0,1),0)</f>
         <v>0</v>
       </c>
       <c r="S62" s="29">
-        <f t="shared" si="46"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="T62" s="11">
-        <f t="shared" si="47"/>
-        <v>3</v>
+        <f t="shared" ref="T62:T66" si="41">SUM(O62:S62)</f>
+        <v>2</v>
       </c>
       <c r="U62" s="4">
         <f>IF($E62=16,$O62*CharDeclAttrSize16,IF($E62=128,$O62*CharDeclAttrSize128,0))</f>
@@ -7699,27 +7520,27 @@
       </c>
       <c r="V62" s="29">
         <f>P62*D62</f>
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="W62" s="29">
-        <f>IF($B62="C",(IF(CONCATENATE($G62,$H62)="--", 0, 2*LSM)+IF($F62="-", 0, 2)+IF($M62="-", 0, 2)))</f>
-        <v>2</v>
+        <f>IF($B62="C",(IF(CONCATENATE($G62,$H62)="--", 0, 2*LSM)+IF($F62="-", 0, 2)+IF($M62="-", 0, 2)),0)</f>
+        <v>0</v>
       </c>
       <c r="X62" s="31">
         <f>SUM(U62:W62)</f>
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="Y62" s="34">
         <f>SUM(U62+2*Q62)</f>
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Z62" s="34">
-        <f t="shared" si="48"/>
-        <v>3</v>
+        <f t="shared" ref="Z62:Z66" si="42">3*Q62</f>
+        <v>0</v>
       </c>
       <c r="AA62" s="34">
-        <f t="shared" si="50"/>
-        <v>3</v>
+        <f>3*Q62</f>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:27" x14ac:dyDescent="0.35">
@@ -7727,11 +7548,11 @@
       <c r="B63" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C63" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="D63" s="25">
-        <v>3</v>
+      <c r="C63" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D63" s="26">
+        <v>1</v>
       </c>
       <c r="E63" s="29">
         <v>128</v>
@@ -7739,20 +7560,20 @@
       <c r="F63" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G63" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H63" s="7" t="s">
+      <c r="G63" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H63" s="6" t="s">
         <v>15</v>
       </c>
       <c r="I63" s="32" t="s">
         <v>15</v>
       </c>
       <c r="J63" s="6" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="K63" s="6" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="L63" s="6" t="s">
         <v>15</v>
@@ -7762,28 +7583,28 @@
       </c>
       <c r="N63" s="3"/>
       <c r="O63" s="4">
-        <f>IF(ISBLANK($C63),0,IF($B63="C",1,0))</f>
+        <f t="shared" ref="O63:P65" si="43">IF(ISBLANK($C63),0,IF($B63="C",1,0))</f>
         <v>1</v>
       </c>
       <c r="P63" s="29">
-        <f>IF(ISBLANK($C63),0,IF($B63="C",1,0))</f>
+        <f t="shared" si="43"/>
         <v>1</v>
       </c>
       <c r="Q63" s="29">
-        <f t="shared" si="44"/>
-        <v>0</v>
+        <f t="shared" si="39"/>
+        <v>1</v>
       </c>
       <c r="R63" s="29">
-        <f t="shared" si="45"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="S63" s="29">
-        <f t="shared" si="46"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="T63" s="11">
-        <f t="shared" si="47"/>
-        <v>2</v>
+        <f t="shared" si="41"/>
+        <v>3</v>
       </c>
       <c r="U63" s="4">
         <f>IF($E63=16,$O63*CharDeclAttrSize16,IF($E63=128,$O63*CharDeclAttrSize128,0))</f>
@@ -7791,11 +7612,11 @@
       </c>
       <c r="V63" s="29">
         <f>P63*D63</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W63" s="29">
-        <f>IF($B63="C",(IF(CONCATENATE($G63,$H63)="--", 0, 2*LSM)+IF($F63="-", 0, 2)+IF($M63="-", 0, 2)))</f>
-        <v>0</v>
+        <f>IF($B63="C",(IF(CONCATENATE($G63,$H63)="--", 0, 2*LSM)+IF($F63="-", 0, 2)+IF($M63="-", 0, 2)),0)</f>
+        <v>2</v>
       </c>
       <c r="X63" s="31">
         <f>SUM(U63:W63)</f>
@@ -7803,281 +7624,523 @@
       </c>
       <c r="Y63" s="34">
         <f>SUM(U63+2*Q63)</f>
+        <v>21</v>
+      </c>
+      <c r="Z63" s="34">
+        <f t="shared" si="42"/>
+        <v>3</v>
+      </c>
+      <c r="AA63" s="34">
+        <f t="shared" ref="AA63:AA66" si="44">3*Q63</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A64" s="8"/>
+      <c r="B64" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C64" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="D64" s="25">
+        <v>20</v>
+      </c>
+      <c r="E64" s="29">
+        <v>128</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H64" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I64" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="J64" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K64" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L64" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M64" s="101" t="s">
+        <v>15</v>
+      </c>
+      <c r="N64" s="3"/>
+      <c r="O64" s="4">
+        <f>IF(ISBLANK($C64),0,IF($B64="C",1,0))</f>
+        <v>1</v>
+      </c>
+      <c r="P64" s="29">
+        <f>IF(ISBLANK($C64),0,IF($B64="C",1,0))</f>
+        <v>1</v>
+      </c>
+      <c r="Q64" s="29">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+      <c r="R64" s="29">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="S64" s="29">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="T64" s="11">
+        <f t="shared" si="41"/>
+        <v>3</v>
+      </c>
+      <c r="U64" s="4">
+        <f>IF($E64=16,$O64*CharDeclAttrSize16,IF($E64=128,$O64*CharDeclAttrSize128,0))</f>
         <v>19</v>
       </c>
-      <c r="Z63" s="34">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="AA63" s="34">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="159"/>
-      <c r="B64" s="160"/>
-      <c r="C64" s="161"/>
-      <c r="D64" s="162">
-        <f>SUM(D59:D63)</f>
+      <c r="V64" s="29">
+        <f>P64*D64</f>
+        <v>20</v>
+      </c>
+      <c r="W64" s="29">
+        <f>IF($B64="C",(IF(CONCATENATE($G64,$H64)="--", 0, 2*LSM)+IF($F64="-", 0, 2)+IF($M64="-", 0, 2)),0)</f>
+        <v>2</v>
+      </c>
+      <c r="X64" s="31">
+        <f>SUM(U64:W64)</f>
+        <v>41</v>
+      </c>
+      <c r="Y64" s="34">
+        <f>SUM(U64+2*Q64)</f>
+        <v>21</v>
+      </c>
+      <c r="Z64" s="34">
+        <f t="shared" si="42"/>
+        <v>3</v>
+      </c>
+      <c r="AA64" s="34">
+        <f t="shared" si="44"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A65" s="8"/>
+      <c r="B65" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C65" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="D65" s="26">
+        <v>1</v>
+      </c>
+      <c r="E65" s="29">
+        <v>128</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H65" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I65" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="J65" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K65" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L65" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M65" s="101" t="s">
+        <v>15</v>
+      </c>
+      <c r="N65" s="3"/>
+      <c r="O65" s="4">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="P65" s="29">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="Q65" s="29">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+      <c r="R65" s="29">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="S65" s="29">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="T65" s="11">
+        <f t="shared" si="41"/>
+        <v>3</v>
+      </c>
+      <c r="U65" s="4">
+        <f>IF($E65=16,$O65*CharDeclAttrSize16,IF($E65=128,$O65*CharDeclAttrSize128,0))</f>
+        <v>19</v>
+      </c>
+      <c r="V65" s="29">
+        <f>P65*D65</f>
+        <v>1</v>
+      </c>
+      <c r="W65" s="29">
+        <f>IF($B65="C",(IF(CONCATENATE($G65,$H65)="--", 0, 2*LSM)+IF($F65="-", 0, 2)+IF($M65="-", 0, 2)),0)</f>
+        <v>2</v>
+      </c>
+      <c r="X65" s="31">
+        <f>SUM(U65:W65)</f>
+        <v>22</v>
+      </c>
+      <c r="Y65" s="34">
+        <f>SUM(U65+2*Q65)</f>
+        <v>21</v>
+      </c>
+      <c r="Z65" s="34">
+        <f t="shared" si="42"/>
+        <v>3</v>
+      </c>
+      <c r="AA65" s="34">
+        <f t="shared" si="44"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A66" s="8"/>
+      <c r="B66" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C66" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="D66" s="25">
+        <v>3</v>
+      </c>
+      <c r="E66" s="29">
+        <v>128</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H66" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I66" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="J66" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K66" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L66" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M66" s="101" t="s">
+        <v>15</v>
+      </c>
+      <c r="N66" s="3"/>
+      <c r="O66" s="4">
+        <f>IF(ISBLANK($C66),0,IF($B66="C",1,0))</f>
+        <v>1</v>
+      </c>
+      <c r="P66" s="29">
+        <f>IF(ISBLANK($C66),0,IF($B66="C",1,0))</f>
+        <v>1</v>
+      </c>
+      <c r="Q66" s="29">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="R66" s="29">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="S66" s="29">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="T66" s="11">
+        <f t="shared" si="41"/>
+        <v>2</v>
+      </c>
+      <c r="U66" s="4">
+        <f>IF($E66=16,$O66*CharDeclAttrSize16,IF($E66=128,$O66*CharDeclAttrSize128,0))</f>
+        <v>19</v>
+      </c>
+      <c r="V66" s="29">
+        <f>P66*D66</f>
+        <v>3</v>
+      </c>
+      <c r="W66" s="29">
+        <f>IF($B66="C",(IF(CONCATENATE($G66,$H66)="--", 0, 2*LSM)+IF($F66="-", 0, 2)+IF($M66="-", 0, 2)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="X66" s="31">
+        <f>SUM(U66:W66)</f>
+        <v>22</v>
+      </c>
+      <c r="Y66" s="34">
+        <f>SUM(U66+2*Q66)</f>
+        <v>19</v>
+      </c>
+      <c r="Z66" s="34">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AA66" s="34">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A67" s="159"/>
+      <c r="B67" s="160"/>
+      <c r="C67" s="161"/>
+      <c r="D67" s="162">
+        <f>SUM(D62:D66)</f>
         <v>45</v>
       </c>
-      <c r="E64" s="163"/>
-      <c r="F64" s="164"/>
-      <c r="G64" s="165"/>
-      <c r="H64" s="165"/>
-      <c r="I64" s="165"/>
-      <c r="J64" s="175"/>
-      <c r="K64" s="165"/>
-      <c r="L64" s="165"/>
-      <c r="M64" s="166"/>
-      <c r="N64" s="167"/>
-      <c r="O64" s="168"/>
-      <c r="P64" s="169"/>
-      <c r="Q64" s="167"/>
-      <c r="R64" s="167"/>
-      <c r="S64" s="167"/>
-      <c r="T64" s="170">
-        <f>SUM(T59:T63)</f>
+      <c r="E67" s="163"/>
+      <c r="F67" s="164"/>
+      <c r="G67" s="165"/>
+      <c r="H67" s="165"/>
+      <c r="I67" s="165"/>
+      <c r="J67" s="175"/>
+      <c r="K67" s="165"/>
+      <c r="L67" s="165"/>
+      <c r="M67" s="166"/>
+      <c r="N67" s="167"/>
+      <c r="O67" s="168"/>
+      <c r="P67" s="169"/>
+      <c r="Q67" s="167"/>
+      <c r="R67" s="167"/>
+      <c r="S67" s="167"/>
+      <c r="T67" s="170">
+        <f>SUM(T62:T66)</f>
         <v>13</v>
       </c>
-      <c r="U64" s="171">
-        <f>SUM(U59:U63)</f>
+      <c r="U67" s="171">
+        <f>SUM(U62:U66)</f>
         <v>95</v>
       </c>
-      <c r="V64" s="172">
-        <f>SUM(V59:V63)</f>
+      <c r="V67" s="172">
+        <f>SUM(V62:V66)</f>
         <v>45</v>
       </c>
-      <c r="W64" s="167">
-        <f>SUM(W59:W63)</f>
+      <c r="W67" s="167">
+        <f>SUM(W62:W66)</f>
         <v>6</v>
       </c>
-      <c r="X64" s="173">
-        <f>SUM(X59:X63)</f>
+      <c r="X67" s="173">
+        <f>SUM(X62:X66)</f>
         <v>146</v>
       </c>
-      <c r="Y64" s="173"/>
-      <c r="Z64" s="173"/>
-      <c r="AA64" s="174"/>
-    </row>
-    <row r="65" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F65" s="29"/>
-      <c r="G65" s="29"/>
-      <c r="H65" s="29"/>
-      <c r="I65" s="29"/>
-      <c r="J65" s="30"/>
-      <c r="K65" s="29"/>
-      <c r="L65" s="29"/>
-      <c r="M65" s="29"/>
-      <c r="N65" s="145" t="s">
-        <v>95</v>
-      </c>
-      <c r="T65" s="141" t="s">
+      <c r="Y67" s="173"/>
+      <c r="Z67" s="173"/>
+      <c r="AA67" s="174"/>
+    </row>
+    <row r="68" spans="1:27" ht="47.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F68" s="29"/>
+      <c r="G68" s="29"/>
+      <c r="H68" s="29"/>
+      <c r="I68" s="29"/>
+      <c r="J68" s="30"/>
+      <c r="K68" s="29"/>
+      <c r="L68" s="29"/>
+      <c r="M68" s="29"/>
+      <c r="N68" s="145" t="s">
+        <v>93</v>
+      </c>
+      <c r="T68" s="141" t="s">
+        <v>48</v>
+      </c>
+      <c r="X68" s="137" t="s">
         <v>49</v>
       </c>
-      <c r="X65" s="137" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="66" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A66" s="129" t="s">
+    </row>
+    <row r="69" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A69" s="129" t="s">
         <v>33</v>
       </c>
-      <c r="B66" s="116"/>
-      <c r="C66" s="117"/>
-      <c r="D66" s="118"/>
-      <c r="E66" s="119"/>
-      <c r="F66" s="120"/>
-      <c r="G66" s="120"/>
-      <c r="H66" s="120"/>
-      <c r="I66" s="120"/>
-      <c r="J66" s="121"/>
-      <c r="N66" s="146">
-        <f>N18+N25</f>
+      <c r="B69" s="116"/>
+      <c r="C69" s="117"/>
+      <c r="D69" s="118"/>
+      <c r="E69" s="119"/>
+      <c r="F69" s="120"/>
+      <c r="G69" s="120"/>
+      <c r="H69" s="120"/>
+      <c r="I69" s="120"/>
+      <c r="J69" s="121"/>
+      <c r="N69" s="146">
+        <f>N21+N28</f>
         <v>2</v>
       </c>
-      <c r="T66" s="142">
-        <f>T23+T29</f>
+      <c r="T69" s="142">
+        <f>T26+T32</f>
         <v>9</v>
       </c>
-      <c r="X66" s="138">
-        <f>X23+X29</f>
+      <c r="X69" s="138">
+        <f>X26+X32</f>
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A67" s="130" t="s">
+    <row r="70" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A70" s="130" t="s">
         <v>34</v>
       </c>
-      <c r="B67" s="122"/>
-      <c r="C67" s="123"/>
-      <c r="D67" s="124"/>
-      <c r="E67" s="125"/>
-      <c r="F67" s="126"/>
-      <c r="G67" s="126"/>
-      <c r="H67" s="126"/>
-      <c r="I67" s="126"/>
-      <c r="J67" s="127"/>
-      <c r="N67" s="147">
-        <f>SUM(N32:N64)</f>
+      <c r="B70" s="122"/>
+      <c r="C70" s="123"/>
+      <c r="D70" s="124"/>
+      <c r="E70" s="125"/>
+      <c r="F70" s="126"/>
+      <c r="G70" s="126"/>
+      <c r="H70" s="126"/>
+      <c r="I70" s="126"/>
+      <c r="J70" s="127"/>
+      <c r="N70" s="147">
+        <f>SUM(N35:N67)</f>
         <v>4</v>
       </c>
-      <c r="T67" s="143">
-        <f>SUM(SUMIFS(T33:T64,B33:B64,"=C"),SUMIFS(T33:T64,B33:B64,"=D"))</f>
+      <c r="T70" s="143">
+        <f>SUM(T44,T53,T60,T67)</f>
         <v>56</v>
       </c>
-      <c r="X67" s="139">
-        <f>SUM(SUMIFS(X33:X64,B33:B64,"=C"),SUMIFS(X33:X64,B33:B64,"=D"))</f>
+      <c r="X70" s="139">
+        <f>SUM(X44,X53,X60,X67)</f>
         <v>552</v>
       </c>
     </row>
-    <row r="68" spans="1:27" ht="19" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="131" t="s">
+    <row r="71" spans="1:27" ht="19" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A71" s="131" t="s">
         <v>23</v>
       </c>
-      <c r="B68" s="132"/>
-      <c r="C68" s="133"/>
-      <c r="D68" s="134"/>
-      <c r="E68" s="134"/>
-      <c r="F68" s="135"/>
-      <c r="G68" s="135"/>
-      <c r="H68" s="135"/>
-      <c r="I68" s="135"/>
-      <c r="J68" s="136"/>
-      <c r="N68" s="144">
-        <f>SUM(N66:N67)</f>
+      <c r="B71" s="132"/>
+      <c r="C71" s="133"/>
+      <c r="D71" s="134"/>
+      <c r="E71" s="134"/>
+      <c r="F71" s="135"/>
+      <c r="G71" s="135"/>
+      <c r="H71" s="135"/>
+      <c r="I71" s="135"/>
+      <c r="J71" s="136"/>
+      <c r="N71" s="144">
+        <f>SUM(N69:N70)</f>
         <v>6</v>
       </c>
-      <c r="T68" s="144">
-        <f>SUM(T66:T67)</f>
+      <c r="T71" s="144">
+        <f>SUM(T69:T70)</f>
         <v>65</v>
       </c>
-      <c r="X68" s="140">
-        <f t="shared" ref="X68" si="51">SUM(X66:X67)</f>
+      <c r="X71" s="140">
+        <f t="shared" ref="X71" si="45">SUM(X69:X70)</f>
         <v>592</v>
       </c>
-      <c r="Y68" s="156">
-        <f>SUM(Y19:Y64)</f>
-        <v>464</v>
-      </c>
-      <c r="Z68" s="157">
-        <f>SUM(Z19:Z64)+16</f>
+      <c r="Y71" s="156">
+        <f>SUM(Y21:Y67)</f>
+        <v>469</v>
+      </c>
+      <c r="Z71" s="157">
+        <f>SUM(Z21:Z67)+16</f>
         <v>37</v>
       </c>
-      <c r="AA68" s="157">
-        <f>SUM(AA19:AA64)</f>
+      <c r="AA71" s="157">
+        <f>SUM(AA21:AA67)</f>
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="W69" s="22"/>
-      <c r="X69" s="22"/>
-      <c r="Y69" s="22"/>
-      <c r="Z69" s="22"/>
-      <c r="AA69" s="22"/>
-    </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A70" s="2"/>
-      <c r="C70" s="21"/>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="W72" s="22"/>
+      <c r="X72" s="22"/>
+      <c r="Y72" s="22"/>
+      <c r="Z72" s="22"/>
+      <c r="AA72" s="22"/>
     </row>
     <row r="73" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A73"/>
-      <c r="B73"/>
-    </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A74"/>
-      <c r="B74"/>
-    </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A75"/>
-      <c r="B75"/>
+      <c r="A73" s="2"/>
+      <c r="C73" s="21"/>
     </row>
     <row r="76" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A76"/>
       <c r="B76"/>
     </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A77"/>
+      <c r="B77"/>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A78"/>
+      <c r="B78"/>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A79"/>
+      <c r="B79"/>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="13">
     <mergeCell ref="O2:P9"/>
-    <mergeCell ref="F15:M15"/>
-    <mergeCell ref="AA16:AA17"/>
-    <mergeCell ref="O15:S15"/>
-    <mergeCell ref="O16:S16"/>
-    <mergeCell ref="U16:X16"/>
-    <mergeCell ref="Y15:AA15"/>
-    <mergeCell ref="Z16:Z17"/>
-    <mergeCell ref="Y16:Y17"/>
-    <mergeCell ref="U15:W15"/>
+    <mergeCell ref="F18:M18"/>
+    <mergeCell ref="AA19:AA20"/>
+    <mergeCell ref="O18:S18"/>
+    <mergeCell ref="O19:S19"/>
+    <mergeCell ref="U19:X19"/>
+    <mergeCell ref="Y18:AA18"/>
+    <mergeCell ref="Z19:Z20"/>
+    <mergeCell ref="Y19:Y20"/>
+    <mergeCell ref="U18:W18"/>
+    <mergeCell ref="V2:X2"/>
+    <mergeCell ref="V3:X3"/>
+    <mergeCell ref="V4:X4"/>
   </mergeCells>
-  <conditionalFormatting sqref="D33:D40">
-    <cfRule type="cellIs" dxfId="13" priority="70" operator="equal">
+  <conditionalFormatting sqref="C36:D43 C46:D52 C55:D59 C62:D66">
+    <cfRule type="expression" dxfId="13" priority="132">
+      <formula>$B36=#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="133">
+      <formula>$B36=$AB$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C36:D43">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
       <formula>$AB$7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D43:D49">
-    <cfRule type="cellIs" dxfId="12" priority="66" operator="equal">
+  <conditionalFormatting sqref="C46:D52">
+    <cfRule type="cellIs" dxfId="10" priority="27" operator="equal">
       <formula>$AB$7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52:D56">
-    <cfRule type="cellIs" dxfId="11" priority="38" operator="equal">
+  <conditionalFormatting sqref="C55:D59">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
       <formula>$AB$7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D59:D63">
-    <cfRule type="cellIs" dxfId="10" priority="34" operator="equal">
+  <conditionalFormatting sqref="C62:D66">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
       <formula>$AB$7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C33:C40">
-    <cfRule type="cellIs" dxfId="9" priority="30" operator="equal">
-      <formula>$AB$7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C43:C49">
-    <cfRule type="cellIs" dxfId="8" priority="27" operator="equal">
-      <formula>$AB$7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C52:C56">
-    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
-      <formula>$AB$7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C59:C63">
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
-      <formula>$AB$7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C52:C56">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
-      <formula>$AB$7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C59:C63">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
-      <formula>$AB$7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D33:D40 D43:D49 D52:D56 D59:D63">
-    <cfRule type="expression" dxfId="3" priority="125">
-      <formula>$B33=#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C43:D49 C52:D56 C59:D63 C33:D40">
-    <cfRule type="expression" dxfId="2" priority="132">
-      <formula>$B33=#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C43:D49 C52:D56 C59:D63 C33:D40">
-    <cfRule type="expression" dxfId="1" priority="133">
-      <formula>$B33=$AB$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C33:C40">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>$AB$7</formula>
+  <conditionalFormatting sqref="D36:D43 D46:D52 D55:D59 D62:D66">
+    <cfRule type="expression" dxfId="7" priority="125">
+      <formula>$B36=#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8087,134 +8150,256 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EADEF474-6117-4BA6-83B6-2604B648A066}">
-  <dimension ref="A3:B20"/>
+  <dimension ref="A2:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E3" sqref="E3:L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="68.81640625" customWidth="1"/>
     <col min="2" max="2" width="56.26953125" customWidth="1"/>
+    <col min="9" max="9" width="17.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="155" t="s">
-        <v>95</v>
-      </c>
-      <c r="B3" s="3">
-        <f>'GATT DB size'!N68</f>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="E2" s="191" t="s">
+        <v>149</v>
+      </c>
+      <c r="F2" s="191"/>
+      <c r="G2" s="191"/>
+      <c r="H2" s="191"/>
+      <c r="I2" s="191"/>
+      <c r="J2" s="191"/>
+      <c r="K2" s="191"/>
+      <c r="L2" s="191"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="E3" s="191" t="s">
+        <v>155</v>
+      </c>
+      <c r="F3" s="191"/>
+      <c r="G3" s="191"/>
+      <c r="H3" s="191"/>
+      <c r="I3" s="191"/>
+      <c r="J3" s="191"/>
+      <c r="K3" s="191"/>
+      <c r="L3" s="191"/>
+    </row>
+    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="155" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="3">
+        <f>'GATT DB size'!N71</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="155" t="s">
+      <c r="E6" s="192" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" s="193"/>
+      <c r="G6" s="193"/>
+      <c r="H6" s="193"/>
+      <c r="I6" s="194"/>
+    </row>
+    <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="155" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="3">
+        <f>'GATT DB size'!T71</f>
+        <v>65</v>
+      </c>
+      <c r="E7" s="41"/>
+      <c r="F7" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="H7" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="I7" s="47" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" s="155" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="3">
-        <f>'GATT DB size'!T68</f>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="155" t="s">
+      <c r="B8" s="3">
+        <f>'GATT DB size'!X71</f>
+        <v>592</v>
+      </c>
+      <c r="E8" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" s="48">
+        <v>10752</v>
+      </c>
+      <c r="G8" s="48">
+        <v>10752</v>
+      </c>
+      <c r="H8" s="48">
+        <v>10752</v>
+      </c>
+      <c r="I8" s="42">
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="155" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="3">
+        <f>B8+(40*(B7))+(48*(B6))</f>
+        <v>3480</v>
+      </c>
+      <c r="E9" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9" s="49">
+        <v>2662</v>
+      </c>
+      <c r="G9" s="44">
+        <v>1764</v>
+      </c>
+      <c r="H9" s="44">
+        <v>1764</v>
+      </c>
+      <c r="I9" s="189" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13" s="155" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="3">
-        <f>'GATT DB size'!X68</f>
-        <v>592</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="155" t="s">
-        <v>54</v>
-      </c>
-      <c r="B6" s="3">
-        <f>B5+(40*(B4))+(48*(B3))</f>
-        <v>3480</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="155" t="s">
+      <c r="B13" s="128">
+        <v>507</v>
+      </c>
+      <c r="C13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14" s="155" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="128">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="155" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" s="128">
+      <c r="B14" s="128">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="155" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" s="128">
-        <f>'GATT DB size'!X23+'GATT DB size'!X29</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="155" t="s">
+      <c r="C14" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A15" s="155" t="s">
+        <v>111</v>
+      </c>
+      <c r="B15" s="128">
+        <f>'GATT DB size'!Y71</f>
+        <v>469</v>
+      </c>
+      <c r="C15" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A16" s="155" t="s">
+        <v>112</v>
+      </c>
+      <c r="B16" s="128">
+        <f>'GATT DB size'!Z71</f>
+        <v>37</v>
+      </c>
+      <c r="C16" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="155" t="s">
+        <v>113</v>
+      </c>
+      <c r="B17" s="128">
+        <f>'GATT DB size'!AA71</f>
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="155" t="s">
+        <v>114</v>
+      </c>
+      <c r="B20" s="3">
+        <f>ROUNDDOWN(((B13*4)-1)/(((B14*4)+B15+2)),0)</f>
+        <v>3</v>
+      </c>
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="155" t="s">
         <v>115</v>
       </c>
-      <c r="B13" s="128">
-        <f>'GATT DB size'!Y68</f>
-        <v>464</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="155" t="s">
+      <c r="B21" s="3">
+        <f>ROUNDDOWN(((B13*4)-1)/(((B14*4)+B16+2)),0)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="155" t="s">
         <v>116</v>
       </c>
-      <c r="B14" s="128">
-        <f>'GATT DB size'!Z68</f>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="155" t="s">
-        <v>117</v>
-      </c>
-      <c r="B15" s="128">
-        <f>'GATT DB size'!AA68</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="155" t="s">
-        <v>118</v>
-      </c>
-      <c r="B18" s="3">
-        <f>ROUNDDOWN(B10/(B11+B12+B13/4),0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="155" t="s">
-        <v>119</v>
-      </c>
-      <c r="B19" s="3">
-        <f>ROUNDDOWN(B10/(B11+B12+B14/4),0)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="155" t="s">
-        <v>120</v>
-      </c>
-      <c r="B20" s="3">
-        <f>ROUNDDOWN(B10/(B11+B12+B15/4),0)</f>
-        <v>7</v>
+      <c r="B22" s="3">
+        <f>ROUNDDOWN(((B13*4)-1)/(((B14*4)+B17+2)),0)</f>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="E2:L2"/>
+    <mergeCell ref="E3:L3"/>
+  </mergeCells>
+  <conditionalFormatting sqref="F8:H8">
+    <cfRule type="cellIs" dxfId="6" priority="10" operator="greaterThan">
+      <formula>$B$9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="11" operator="greaterThan">
+      <formula>"$B$6"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="12" operator="greaterThan">
+      <formula>"B6"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9:H9">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThan">
+      <formula>$B$9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8:I8">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
+      <formula>$B$9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9:H9">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="greaterThanOrEqual">
+      <formula>$B$9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I8">
+    <cfRule type="cellIs" priority="2" operator="lessThan">
+      <formula>$B$9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThanOrEqual">
+      <formula>$B$9</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -8296,25 +8481,25 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s">
         <v>43</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>44</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>45</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>46</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
         <v>47</v>
-      </c>
-      <c r="F3">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
